--- a/backend/templates/pds_template.xlsx
+++ b/backend/templates/pds_template.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="9855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="1" r:id="rId1"/>
@@ -3538,37 +3538,34 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3579,370 +3576,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3950,117 +3594,20 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4077,10 +3624,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4108,6 +3665,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4123,53 +3684,517 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="43" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4178,54 +4203,112 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4238,15 +4321,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4256,158 +4330,47 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4422,36 +4385,30 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -4461,10 +4418,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4488,6 +4454,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4512,122 +4490,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="43" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="43" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4635,279 +4570,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -4925,46 +4593,378 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10117,8 +10117,8 @@
   </sheetPr>
   <dimension ref="A1:S264"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R64" sqref="R64"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10143,20 +10143,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="399"/>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="400"/>
-      <c r="F1" s="400"/>
-      <c r="G1" s="400"/>
-      <c r="H1" s="400"/>
-      <c r="I1" s="400"/>
-      <c r="J1" s="400"/>
-      <c r="K1" s="400"/>
-      <c r="L1" s="400"/>
-      <c r="M1" s="400"/>
-      <c r="N1" s="401"/>
+      <c r="A1" s="410"/>
+      <c r="B1" s="411"/>
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
+      <c r="N1" s="412"/>
     </row>
     <row r="2" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="186"/>
@@ -10186,58 +10186,58 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="402" t="s">
+      <c r="A3" s="413" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="403"/>
-      <c r="C3" s="403"/>
-      <c r="D3" s="403"/>
-      <c r="E3" s="403"/>
-      <c r="F3" s="403"/>
-      <c r="G3" s="403"/>
-      <c r="H3" s="403"/>
-      <c r="I3" s="403"/>
-      <c r="J3" s="403"/>
-      <c r="K3" s="403"/>
-      <c r="L3" s="403"/>
-      <c r="M3" s="403"/>
-      <c r="N3" s="404"/>
+      <c r="B3" s="414"/>
+      <c r="C3" s="414"/>
+      <c r="D3" s="414"/>
+      <c r="E3" s="414"/>
+      <c r="F3" s="414"/>
+      <c r="G3" s="414"/>
+      <c r="H3" s="414"/>
+      <c r="I3" s="414"/>
+      <c r="J3" s="414"/>
+      <c r="K3" s="414"/>
+      <c r="L3" s="414"/>
+      <c r="M3" s="414"/>
+      <c r="N3" s="415"/>
     </row>
     <row r="4" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="361" t="s">
+      <c r="A4" s="452" t="s">
         <v>402</v>
       </c>
-      <c r="B4" s="362"/>
-      <c r="C4" s="362"/>
-      <c r="D4" s="362"/>
-      <c r="E4" s="362"/>
-      <c r="F4" s="362"/>
-      <c r="G4" s="362"/>
-      <c r="H4" s="362"/>
-      <c r="I4" s="362"/>
-      <c r="J4" s="362"/>
-      <c r="K4" s="362"/>
-      <c r="L4" s="362"/>
-      <c r="M4" s="362"/>
-      <c r="N4" s="363"/>
+      <c r="B4" s="453"/>
+      <c r="C4" s="453"/>
+      <c r="D4" s="453"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="453"/>
+      <c r="G4" s="453"/>
+      <c r="H4" s="453"/>
+      <c r="I4" s="453"/>
+      <c r="J4" s="453"/>
+      <c r="K4" s="453"/>
+      <c r="L4" s="453"/>
+      <c r="M4" s="453"/>
+      <c r="N4" s="454"/>
     </row>
     <row r="5" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="478" t="s">
+      <c r="A5" s="335" t="s">
         <v>386</v>
       </c>
-      <c r="B5" s="479"/>
-      <c r="C5" s="479"/>
-      <c r="D5" s="479"/>
-      <c r="E5" s="479"/>
-      <c r="F5" s="479"/>
-      <c r="G5" s="479"/>
-      <c r="H5" s="479"/>
-      <c r="I5" s="479"/>
-      <c r="J5" s="479"/>
-      <c r="K5" s="479"/>
-      <c r="L5" s="479"/>
-      <c r="M5" s="479"/>
-      <c r="N5" s="480"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
+      <c r="E5" s="336"/>
+      <c r="F5" s="336"/>
+      <c r="G5" s="336"/>
+      <c r="H5" s="336"/>
+      <c r="I5" s="336"/>
+      <c r="J5" s="336"/>
+      <c r="K5" s="336"/>
+      <c r="L5" s="336"/>
+      <c r="M5" s="336"/>
+      <c r="N5" s="337"/>
     </row>
     <row r="6" spans="1:18" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="232"/>
@@ -10271,11 +10271,11 @@
       <c r="K7" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="408" t="s">
+      <c r="L7" s="419" t="s">
         <v>358</v>
       </c>
-      <c r="M7" s="409"/>
-      <c r="N7" s="410"/>
+      <c r="M7" s="420"/>
+      <c r="N7" s="421"/>
     </row>
     <row r="8" spans="1:18" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="190"/>
@@ -10294,52 +10294,52 @@
       <c r="N8" s="180"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="405" t="s">
+      <c r="A9" s="416" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="406"/>
-      <c r="C9" s="406"/>
-      <c r="D9" s="406"/>
-      <c r="E9" s="406"/>
-      <c r="F9" s="406"/>
-      <c r="G9" s="406"/>
-      <c r="H9" s="406"/>
-      <c r="I9" s="406"/>
-      <c r="J9" s="406"/>
-      <c r="K9" s="406"/>
-      <c r="L9" s="406"/>
-      <c r="M9" s="406"/>
-      <c r="N9" s="407"/>
+      <c r="B9" s="417"/>
+      <c r="C9" s="417"/>
+      <c r="D9" s="417"/>
+      <c r="E9" s="417"/>
+      <c r="F9" s="417"/>
+      <c r="G9" s="417"/>
+      <c r="H9" s="417"/>
+      <c r="I9" s="417"/>
+      <c r="J9" s="417"/>
+      <c r="K9" s="417"/>
+      <c r="L9" s="417"/>
+      <c r="M9" s="417"/>
+      <c r="N9" s="418"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="428" t="s">
+      <c r="B10" s="438" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="429"/>
-      <c r="D10" s="419"/>
-      <c r="E10" s="419"/>
-      <c r="F10" s="419"/>
-      <c r="G10" s="419"/>
-      <c r="H10" s="419"/>
-      <c r="I10" s="419"/>
-      <c r="J10" s="419"/>
-      <c r="K10" s="419"/>
-      <c r="L10" s="419"/>
-      <c r="M10" s="419"/>
-      <c r="N10" s="420"/>
+      <c r="C10" s="367"/>
+      <c r="D10" s="430"/>
+      <c r="E10" s="430"/>
+      <c r="F10" s="430"/>
+      <c r="G10" s="430"/>
+      <c r="H10" s="430"/>
+      <c r="I10" s="430"/>
+      <c r="J10" s="430"/>
+      <c r="K10" s="430"/>
+      <c r="L10" s="430"/>
+      <c r="M10" s="430"/>
+      <c r="N10" s="431"/>
       <c r="P10" s="106" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="191"/>
-      <c r="B11" s="430" t="s">
+      <c r="B11" s="439" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="431"/>
+      <c r="C11" s="440"/>
       <c r="D11" s="246"/>
       <c r="E11" s="247"/>
       <c r="F11" s="247"/>
@@ -10348,11 +10348,11 @@
       <c r="I11" s="247"/>
       <c r="J11" s="247"/>
       <c r="K11" s="247"/>
-      <c r="L11" s="449" t="s">
+      <c r="L11" s="368" t="s">
         <v>404</v>
       </c>
-      <c r="M11" s="450"/>
-      <c r="N11" s="451"/>
+      <c r="M11" s="369"/>
+      <c r="N11" s="370"/>
       <c r="P11" s="107" t="s">
         <v>52</v>
       </c>
@@ -10362,10 +10362,10 @@
     </row>
     <row r="12" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="192"/>
-      <c r="B12" s="432" t="s">
+      <c r="B12" s="441" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="433"/>
+      <c r="C12" s="442"/>
       <c r="D12" s="237"/>
       <c r="E12" s="238"/>
       <c r="F12" s="238"/>
@@ -10388,23 +10388,23 @@
       <c r="A13" s="290" t="s">
         <v>369</v>
       </c>
-      <c r="B13" s="503" t="s">
+      <c r="B13" s="366" t="s">
         <v>395</v>
       </c>
-      <c r="C13" s="429"/>
-      <c r="D13" s="452"/>
-      <c r="E13" s="452"/>
-      <c r="F13" s="453"/>
+      <c r="C13" s="367"/>
+      <c r="D13" s="371"/>
+      <c r="E13" s="371"/>
+      <c r="F13" s="372"/>
       <c r="G13" s="113" t="s">
         <v>372</v>
       </c>
       <c r="H13" s="162"/>
       <c r="I13" s="162"/>
-      <c r="J13" s="459"/>
-      <c r="K13" s="460"/>
-      <c r="L13" s="460"/>
-      <c r="M13" s="460"/>
-      <c r="N13" s="461"/>
+      <c r="J13" s="378"/>
+      <c r="K13" s="379"/>
+      <c r="L13" s="379"/>
+      <c r="M13" s="379"/>
+      <c r="N13" s="380"/>
       <c r="P13" s="107" t="s">
         <v>53</v>
       </c>
@@ -10438,21 +10438,21 @@
         <v>12</v>
       </c>
       <c r="C15" s="108"/>
-      <c r="D15" s="473"/>
-      <c r="E15" s="473"/>
-      <c r="F15" s="474"/>
-      <c r="G15" s="457" t="s">
+      <c r="D15" s="396"/>
+      <c r="E15" s="396"/>
+      <c r="F15" s="397"/>
+      <c r="G15" s="376" t="s">
         <v>387</v>
       </c>
-      <c r="H15" s="458"/>
-      <c r="I15" s="458"/>
+      <c r="H15" s="377"/>
+      <c r="I15" s="377"/>
       <c r="J15" s="163"/>
       <c r="K15" s="164"/>
-      <c r="L15" s="463" t="s">
+      <c r="L15" s="382" t="s">
         <v>394</v>
       </c>
-      <c r="M15" s="463"/>
-      <c r="N15" s="464"/>
+      <c r="M15" s="382"/>
+      <c r="N15" s="383"/>
       <c r="P15" s="107" t="s">
         <v>118</v>
       </c>
@@ -10468,14 +10468,14 @@
         <v>5</v>
       </c>
       <c r="C16" s="109"/>
-      <c r="D16" s="421"/>
-      <c r="E16" s="421"/>
-      <c r="F16" s="422"/>
-      <c r="G16" s="454" t="s">
+      <c r="D16" s="432"/>
+      <c r="E16" s="432"/>
+      <c r="F16" s="433"/>
+      <c r="G16" s="373" t="s">
         <v>324</v>
       </c>
-      <c r="H16" s="455"/>
-      <c r="I16" s="456"/>
+      <c r="H16" s="374"/>
+      <c r="I16" s="375"/>
       <c r="J16" s="181"/>
       <c r="K16" s="181"/>
       <c r="L16" s="181"/>
@@ -10489,49 +10489,49 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="491">
+      <c r="A17" s="353">
         <v>6</v>
       </c>
-      <c r="B17" s="499" t="s">
+      <c r="B17" s="362" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="500"/>
-      <c r="D17" s="498"/>
-      <c r="E17" s="498"/>
-      <c r="F17" s="498"/>
+      <c r="C17" s="363"/>
+      <c r="D17" s="360"/>
+      <c r="E17" s="360"/>
+      <c r="F17" s="360"/>
       <c r="G17" s="114" t="s">
         <v>373</v>
       </c>
       <c r="H17" s="115"/>
-      <c r="I17" s="382"/>
-      <c r="J17" s="383"/>
-      <c r="K17" s="383"/>
-      <c r="L17" s="383"/>
-      <c r="M17" s="383"/>
-      <c r="N17" s="384"/>
+      <c r="I17" s="392"/>
+      <c r="J17" s="384"/>
+      <c r="K17" s="384"/>
+      <c r="L17" s="384"/>
+      <c r="M17" s="384"/>
+      <c r="N17" s="385"/>
       <c r="Q17" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="492"/>
-      <c r="B18" s="501"/>
-      <c r="C18" s="502"/>
-      <c r="D18" s="426"/>
-      <c r="E18" s="426"/>
-      <c r="F18" s="426"/>
+      <c r="A18" s="354"/>
+      <c r="B18" s="364"/>
+      <c r="C18" s="365"/>
+      <c r="D18" s="361"/>
+      <c r="E18" s="361"/>
+      <c r="F18" s="361"/>
       <c r="G18" s="173"/>
       <c r="H18" s="116"/>
-      <c r="I18" s="466" t="s">
+      <c r="I18" s="387" t="s">
         <v>354</v>
       </c>
-      <c r="J18" s="467"/>
-      <c r="K18" s="467"/>
-      <c r="L18" s="467" t="s">
+      <c r="J18" s="338"/>
+      <c r="K18" s="338"/>
+      <c r="L18" s="338" t="s">
         <v>353</v>
       </c>
-      <c r="M18" s="467"/>
-      <c r="N18" s="468"/>
+      <c r="M18" s="338"/>
+      <c r="N18" s="339"/>
       <c r="Q18" s="3" t="s">
         <v>126</v>
       </c>
@@ -10545,100 +10545,100 @@
       <c r="F19" s="182"/>
       <c r="G19" s="173"/>
       <c r="H19" s="116"/>
-      <c r="I19" s="481"/>
-      <c r="J19" s="482"/>
-      <c r="K19" s="482"/>
-      <c r="L19" s="485"/>
-      <c r="M19" s="482"/>
-      <c r="N19" s="486"/>
+      <c r="I19" s="340"/>
+      <c r="J19" s="341"/>
+      <c r="K19" s="341"/>
+      <c r="L19" s="344"/>
+      <c r="M19" s="341"/>
+      <c r="N19" s="345"/>
       <c r="Q19" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="492"/>
+      <c r="A20" s="354"/>
       <c r="B20" s="267"/>
       <c r="C20" s="152"/>
       <c r="D20" s="153"/>
-      <c r="E20" s="426"/>
-      <c r="F20" s="426"/>
+      <c r="E20" s="361"/>
+      <c r="F20" s="361"/>
       <c r="G20" s="171"/>
       <c r="H20" s="179"/>
-      <c r="I20" s="483"/>
-      <c r="J20" s="484"/>
-      <c r="K20" s="484"/>
-      <c r="L20" s="484"/>
-      <c r="M20" s="484"/>
-      <c r="N20" s="487"/>
+      <c r="I20" s="342"/>
+      <c r="J20" s="343"/>
+      <c r="K20" s="343"/>
+      <c r="L20" s="343"/>
+      <c r="M20" s="343"/>
+      <c r="N20" s="346"/>
       <c r="Q20" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="493"/>
+      <c r="A21" s="355"/>
       <c r="B21" s="268"/>
       <c r="C21" s="150"/>
       <c r="D21" s="154"/>
-      <c r="E21" s="427"/>
-      <c r="F21" s="427"/>
+      <c r="E21" s="437"/>
+      <c r="F21" s="437"/>
       <c r="G21" s="171"/>
       <c r="H21" s="179"/>
-      <c r="I21" s="488" t="s">
+      <c r="I21" s="347" t="s">
         <v>350</v>
       </c>
-      <c r="J21" s="489"/>
-      <c r="K21" s="489"/>
-      <c r="L21" s="379" t="s">
+      <c r="J21" s="348"/>
+      <c r="K21" s="348"/>
+      <c r="L21" s="475" t="s">
         <v>351</v>
       </c>
-      <c r="M21" s="380"/>
-      <c r="N21" s="381"/>
+      <c r="M21" s="476"/>
+      <c r="N21" s="477"/>
       <c r="Q21" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="496" t="s">
+      <c r="A22" s="358" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="444" t="s">
+      <c r="B22" s="333" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="445"/>
-      <c r="D22" s="440"/>
-      <c r="E22" s="440"/>
-      <c r="F22" s="440"/>
+      <c r="C22" s="334"/>
+      <c r="D22" s="405"/>
+      <c r="E22" s="405"/>
+      <c r="F22" s="405"/>
       <c r="G22" s="171"/>
       <c r="H22" s="179"/>
-      <c r="I22" s="382"/>
-      <c r="J22" s="383"/>
-      <c r="K22" s="383"/>
-      <c r="L22" s="383"/>
-      <c r="M22" s="383"/>
-      <c r="N22" s="384"/>
+      <c r="I22" s="392"/>
+      <c r="J22" s="384"/>
+      <c r="K22" s="384"/>
+      <c r="L22" s="384"/>
+      <c r="M22" s="384"/>
+      <c r="N22" s="385"/>
       <c r="Q22" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="497"/>
-      <c r="B23" s="446"/>
-      <c r="C23" s="447"/>
-      <c r="D23" s="441"/>
-      <c r="E23" s="441"/>
-      <c r="F23" s="441"/>
+      <c r="A23" s="359"/>
+      <c r="B23" s="406"/>
+      <c r="C23" s="407"/>
+      <c r="D23" s="352"/>
+      <c r="E23" s="352"/>
+      <c r="F23" s="352"/>
       <c r="G23" s="171"/>
       <c r="H23" s="179"/>
-      <c r="I23" s="387" t="s">
+      <c r="I23" s="480" t="s">
         <v>361</v>
       </c>
-      <c r="J23" s="388"/>
-      <c r="K23" s="388"/>
-      <c r="L23" s="385" t="s">
+      <c r="J23" s="481"/>
+      <c r="K23" s="481"/>
+      <c r="L23" s="478" t="s">
         <v>352</v>
       </c>
-      <c r="M23" s="385"/>
-      <c r="N23" s="386"/>
+      <c r="M23" s="478"/>
+      <c r="N23" s="479"/>
       <c r="Q23" s="3" t="s">
         <v>131</v>
       </c>
@@ -10647,132 +10647,132 @@
       <c r="A24" s="191" t="s">
         <v>333</v>
       </c>
-      <c r="B24" s="448" t="s">
+      <c r="B24" s="408" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="435"/>
-      <c r="D24" s="465"/>
-      <c r="E24" s="465"/>
-      <c r="F24" s="465"/>
-      <c r="G24" s="394" t="s">
+      <c r="C24" s="409"/>
+      <c r="D24" s="386"/>
+      <c r="E24" s="386"/>
+      <c r="F24" s="386"/>
+      <c r="G24" s="443" t="s">
         <v>326</v>
       </c>
-      <c r="H24" s="372"/>
-      <c r="I24" s="395"/>
-      <c r="J24" s="396"/>
-      <c r="K24" s="396"/>
-      <c r="L24" s="396"/>
-      <c r="M24" s="396"/>
-      <c r="N24" s="397"/>
+      <c r="H24" s="444"/>
+      <c r="I24" s="393"/>
+      <c r="J24" s="394"/>
+      <c r="K24" s="394"/>
+      <c r="L24" s="394"/>
+      <c r="M24" s="394"/>
+      <c r="N24" s="395"/>
       <c r="Q24" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="442" t="s">
+      <c r="A25" s="349" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="444" t="s">
+      <c r="B25" s="333" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="445"/>
-      <c r="D25" s="490"/>
-      <c r="E25" s="490"/>
-      <c r="F25" s="490"/>
+      <c r="C25" s="334"/>
+      <c r="D25" s="351"/>
+      <c r="E25" s="351"/>
+      <c r="F25" s="351"/>
       <c r="G25" s="122" t="s">
         <v>374</v>
       </c>
       <c r="H25" s="110"/>
       <c r="I25" s="398"/>
-      <c r="J25" s="392"/>
-      <c r="K25" s="392"/>
-      <c r="L25" s="392"/>
-      <c r="M25" s="392"/>
-      <c r="N25" s="393"/>
+      <c r="J25" s="399"/>
+      <c r="K25" s="399"/>
+      <c r="L25" s="399"/>
+      <c r="M25" s="399"/>
+      <c r="N25" s="485"/>
       <c r="Q25" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="443"/>
-      <c r="B26" s="446"/>
-      <c r="C26" s="447"/>
-      <c r="D26" s="441"/>
-      <c r="E26" s="441"/>
-      <c r="F26" s="441"/>
+      <c r="A26" s="350"/>
+      <c r="B26" s="406"/>
+      <c r="C26" s="407"/>
+      <c r="D26" s="352"/>
+      <c r="E26" s="352"/>
+      <c r="F26" s="352"/>
       <c r="G26" s="171"/>
       <c r="H26" s="179"/>
-      <c r="I26" s="466" t="s">
+      <c r="I26" s="387" t="s">
         <v>354</v>
       </c>
-      <c r="J26" s="467"/>
-      <c r="K26" s="467"/>
-      <c r="L26" s="467" t="s">
+      <c r="J26" s="338"/>
+      <c r="K26" s="338"/>
+      <c r="L26" s="338" t="s">
         <v>353</v>
       </c>
-      <c r="M26" s="467"/>
-      <c r="N26" s="468"/>
+      <c r="M26" s="338"/>
+      <c r="N26" s="339"/>
       <c r="Q26" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="442" t="s">
+      <c r="A27" s="349" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="444" t="s">
+      <c r="B27" s="333" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="445"/>
-      <c r="D27" s="490"/>
-      <c r="E27" s="490"/>
-      <c r="F27" s="490"/>
+      <c r="C27" s="334"/>
+      <c r="D27" s="351"/>
+      <c r="E27" s="351"/>
+      <c r="F27" s="351"/>
       <c r="G27" s="173"/>
       <c r="H27" s="116"/>
       <c r="I27" s="398"/>
-      <c r="J27" s="392"/>
-      <c r="K27" s="392"/>
-      <c r="L27" s="392"/>
-      <c r="M27" s="392"/>
-      <c r="N27" s="393"/>
+      <c r="J27" s="399"/>
+      <c r="K27" s="399"/>
+      <c r="L27" s="399"/>
+      <c r="M27" s="399"/>
+      <c r="N27" s="485"/>
       <c r="Q27" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="443"/>
-      <c r="B28" s="446"/>
-      <c r="C28" s="447"/>
-      <c r="D28" s="441"/>
-      <c r="E28" s="441"/>
-      <c r="F28" s="441"/>
+      <c r="A28" s="350"/>
+      <c r="B28" s="406"/>
+      <c r="C28" s="407"/>
+      <c r="D28" s="352"/>
+      <c r="E28" s="352"/>
+      <c r="F28" s="352"/>
       <c r="G28" s="173"/>
       <c r="H28" s="116"/>
-      <c r="I28" s="469" t="s">
+      <c r="I28" s="388" t="s">
         <v>350</v>
       </c>
-      <c r="J28" s="470"/>
-      <c r="K28" s="470"/>
-      <c r="L28" s="471" t="s">
+      <c r="J28" s="389"/>
+      <c r="K28" s="389"/>
+      <c r="L28" s="390" t="s">
         <v>351</v>
       </c>
-      <c r="M28" s="470"/>
-      <c r="N28" s="472"/>
+      <c r="M28" s="389"/>
+      <c r="N28" s="391"/>
       <c r="Q28" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="442" t="s">
+      <c r="A29" s="349" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="444" t="s">
+      <c r="B29" s="333" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="445"/>
-      <c r="D29" s="490"/>
-      <c r="E29" s="490"/>
-      <c r="F29" s="490"/>
+      <c r="C29" s="334"/>
+      <c r="D29" s="351"/>
+      <c r="E29" s="351"/>
+      <c r="F29" s="351"/>
       <c r="G29" s="173"/>
       <c r="H29" s="184"/>
       <c r="I29" s="175"/>
@@ -10786,24 +10786,24 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="443"/>
-      <c r="B30" s="446"/>
-      <c r="C30" s="447"/>
-      <c r="D30" s="441"/>
-      <c r="E30" s="441"/>
-      <c r="F30" s="441"/>
+      <c r="A30" s="350"/>
+      <c r="B30" s="406"/>
+      <c r="C30" s="407"/>
+      <c r="D30" s="352"/>
+      <c r="E30" s="352"/>
+      <c r="F30" s="352"/>
       <c r="G30" s="173"/>
       <c r="H30" s="184"/>
-      <c r="I30" s="389" t="s">
+      <c r="I30" s="482" t="s">
         <v>361</v>
       </c>
-      <c r="J30" s="389"/>
-      <c r="K30" s="389"/>
-      <c r="L30" s="389" t="s">
+      <c r="J30" s="482"/>
+      <c r="K30" s="482"/>
+      <c r="L30" s="482" t="s">
         <v>352</v>
       </c>
-      <c r="M30" s="389"/>
-      <c r="N30" s="390"/>
+      <c r="M30" s="482"/>
+      <c r="N30" s="483"/>
       <c r="Q30" s="3" t="s">
         <v>138</v>
       </c>
@@ -10816,19 +10816,19 @@
         <v>60</v>
       </c>
       <c r="C31" s="109"/>
-      <c r="D31" s="462"/>
-      <c r="E31" s="462"/>
-      <c r="F31" s="462"/>
-      <c r="G31" s="394" t="s">
+      <c r="D31" s="381"/>
+      <c r="E31" s="381"/>
+      <c r="F31" s="381"/>
+      <c r="G31" s="443" t="s">
         <v>326</v>
       </c>
-      <c r="H31" s="372"/>
-      <c r="I31" s="387"/>
-      <c r="J31" s="388"/>
-      <c r="K31" s="388"/>
-      <c r="L31" s="379"/>
-      <c r="M31" s="379"/>
-      <c r="N31" s="391"/>
+      <c r="H31" s="444"/>
+      <c r="I31" s="480"/>
+      <c r="J31" s="481"/>
+      <c r="K31" s="481"/>
+      <c r="L31" s="475"/>
+      <c r="M31" s="475"/>
+      <c r="N31" s="484"/>
       <c r="Q31" s="3" t="s">
         <v>139</v>
       </c>
@@ -10841,42 +10841,42 @@
         <v>84</v>
       </c>
       <c r="C32" s="109"/>
-      <c r="D32" s="465"/>
-      <c r="E32" s="465"/>
-      <c r="F32" s="465"/>
+      <c r="D32" s="386"/>
+      <c r="E32" s="386"/>
+      <c r="F32" s="386"/>
       <c r="G32" s="170" t="s">
         <v>375</v>
       </c>
       <c r="H32" s="174"/>
-      <c r="I32" s="395"/>
-      <c r="J32" s="396"/>
-      <c r="K32" s="396"/>
-      <c r="L32" s="396"/>
-      <c r="M32" s="396"/>
-      <c r="N32" s="397"/>
+      <c r="I32" s="393"/>
+      <c r="J32" s="394"/>
+      <c r="K32" s="394"/>
+      <c r="L32" s="394"/>
+      <c r="M32" s="394"/>
+      <c r="N32" s="395"/>
       <c r="Q32" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="434" t="s">
+      <c r="A33" s="446" t="s">
         <v>370</v>
       </c>
-      <c r="B33" s="435"/>
-      <c r="C33" s="436"/>
-      <c r="D33" s="437"/>
-      <c r="E33" s="437"/>
-      <c r="F33" s="437"/>
+      <c r="B33" s="409"/>
+      <c r="C33" s="447"/>
+      <c r="D33" s="448"/>
+      <c r="E33" s="448"/>
+      <c r="F33" s="448"/>
       <c r="G33" s="245" t="s">
         <v>376</v>
       </c>
       <c r="H33" s="172"/>
-      <c r="I33" s="395"/>
-      <c r="J33" s="396"/>
-      <c r="K33" s="396"/>
-      <c r="L33" s="396"/>
-      <c r="M33" s="396"/>
-      <c r="N33" s="397"/>
+      <c r="I33" s="393"/>
+      <c r="J33" s="394"/>
+      <c r="K33" s="394"/>
+      <c r="L33" s="394"/>
+      <c r="M33" s="394"/>
+      <c r="N33" s="395"/>
       <c r="Q33" s="3" t="s">
         <v>141</v>
       </c>
@@ -10887,19 +10887,19 @@
       </c>
       <c r="B34" s="269"/>
       <c r="C34" s="177"/>
-      <c r="D34" s="425"/>
-      <c r="E34" s="425"/>
-      <c r="F34" s="425"/>
+      <c r="D34" s="436"/>
+      <c r="E34" s="436"/>
+      <c r="F34" s="436"/>
       <c r="G34" s="122" t="s">
         <v>377</v>
       </c>
       <c r="H34" s="110"/>
-      <c r="I34" s="475"/>
-      <c r="J34" s="476"/>
-      <c r="K34" s="476"/>
-      <c r="L34" s="476"/>
-      <c r="M34" s="476"/>
-      <c r="N34" s="477"/>
+      <c r="I34" s="400"/>
+      <c r="J34" s="401"/>
+      <c r="K34" s="401"/>
+      <c r="L34" s="401"/>
+      <c r="M34" s="401"/>
+      <c r="N34" s="402"/>
       <c r="Q34" s="3" t="s">
         <v>142</v>
       </c>
@@ -10933,21 +10933,21 @@
         <v>74</v>
       </c>
       <c r="C36" s="274"/>
-      <c r="D36" s="494"/>
-      <c r="E36" s="494"/>
-      <c r="F36" s="494"/>
-      <c r="G36" s="494"/>
-      <c r="H36" s="494"/>
-      <c r="I36" s="438" t="s">
+      <c r="D36" s="356"/>
+      <c r="E36" s="356"/>
+      <c r="F36" s="356"/>
+      <c r="G36" s="356"/>
+      <c r="H36" s="356"/>
+      <c r="I36" s="403" t="s">
         <v>379</v>
       </c>
-      <c r="J36" s="438"/>
-      <c r="K36" s="438"/>
-      <c r="L36" s="439"/>
-      <c r="M36" s="413" t="s">
+      <c r="J36" s="403"/>
+      <c r="K36" s="403"/>
+      <c r="L36" s="404"/>
+      <c r="M36" s="424" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="414"/>
+      <c r="N36" s="425"/>
       <c r="Q36" s="3" t="s">
         <v>144</v>
       </c>
@@ -10958,19 +10958,19 @@
         <v>67</v>
       </c>
       <c r="C37" s="260"/>
-      <c r="D37" s="333"/>
-      <c r="E37" s="334"/>
-      <c r="F37" s="335"/>
-      <c r="G37" s="348" t="s">
+      <c r="D37" s="449"/>
+      <c r="E37" s="450"/>
+      <c r="F37" s="451"/>
+      <c r="G37" s="445" t="s">
         <v>382</v>
       </c>
-      <c r="H37" s="348"/>
-      <c r="I37" s="331"/>
-      <c r="J37" s="331"/>
-      <c r="K37" s="331"/>
-      <c r="L37" s="332"/>
-      <c r="M37" s="329"/>
-      <c r="N37" s="330"/>
+      <c r="H37" s="445"/>
+      <c r="I37" s="322"/>
+      <c r="J37" s="322"/>
+      <c r="K37" s="322"/>
+      <c r="L37" s="323"/>
+      <c r="M37" s="327"/>
+      <c r="N37" s="328"/>
       <c r="Q37" s="3" t="s">
         <v>145</v>
       </c>
@@ -10981,17 +10981,17 @@
         <v>68</v>
       </c>
       <c r="C38" s="261"/>
-      <c r="D38" s="333"/>
-      <c r="E38" s="334"/>
-      <c r="F38" s="334"/>
-      <c r="G38" s="334"/>
-      <c r="H38" s="335"/>
-      <c r="I38" s="331"/>
-      <c r="J38" s="331"/>
-      <c r="K38" s="331"/>
-      <c r="L38" s="332"/>
-      <c r="M38" s="329"/>
-      <c r="N38" s="330"/>
+      <c r="D38" s="449"/>
+      <c r="E38" s="450"/>
+      <c r="F38" s="450"/>
+      <c r="G38" s="450"/>
+      <c r="H38" s="451"/>
+      <c r="I38" s="322"/>
+      <c r="J38" s="322"/>
+      <c r="K38" s="322"/>
+      <c r="L38" s="323"/>
+      <c r="M38" s="327"/>
+      <c r="N38" s="328"/>
       <c r="Q38" s="3" t="s">
         <v>146</v>
       </c>
@@ -11002,17 +11002,17 @@
         <v>18</v>
       </c>
       <c r="C39" s="109"/>
-      <c r="D39" s="495"/>
-      <c r="E39" s="495"/>
-      <c r="F39" s="495"/>
-      <c r="G39" s="495"/>
-      <c r="H39" s="495"/>
-      <c r="I39" s="331"/>
-      <c r="J39" s="331"/>
-      <c r="K39" s="331"/>
-      <c r="L39" s="332"/>
-      <c r="M39" s="329"/>
-      <c r="N39" s="330"/>
+      <c r="D39" s="357"/>
+      <c r="E39" s="357"/>
+      <c r="F39" s="357"/>
+      <c r="G39" s="357"/>
+      <c r="H39" s="357"/>
+      <c r="I39" s="322"/>
+      <c r="J39" s="322"/>
+      <c r="K39" s="322"/>
+      <c r="L39" s="323"/>
+      <c r="M39" s="327"/>
+      <c r="N39" s="328"/>
       <c r="Q39" s="3" t="s">
         <v>147</v>
       </c>
@@ -11023,17 +11023,17 @@
         <v>368</v>
       </c>
       <c r="C40" s="109"/>
-      <c r="D40" s="495"/>
-      <c r="E40" s="495"/>
-      <c r="F40" s="495"/>
-      <c r="G40" s="495"/>
-      <c r="H40" s="495"/>
-      <c r="I40" s="331"/>
-      <c r="J40" s="331"/>
-      <c r="K40" s="331"/>
-      <c r="L40" s="332"/>
-      <c r="M40" s="329"/>
-      <c r="N40" s="330"/>
+      <c r="D40" s="357"/>
+      <c r="E40" s="357"/>
+      <c r="F40" s="357"/>
+      <c r="G40" s="357"/>
+      <c r="H40" s="357"/>
+      <c r="I40" s="322"/>
+      <c r="J40" s="322"/>
+      <c r="K40" s="322"/>
+      <c r="L40" s="323"/>
+      <c r="M40" s="327"/>
+      <c r="N40" s="328"/>
       <c r="Q40" s="3" t="s">
         <v>148</v>
       </c>
@@ -11044,17 +11044,17 @@
         <v>19</v>
       </c>
       <c r="C41" s="109"/>
-      <c r="D41" s="495"/>
-      <c r="E41" s="495"/>
-      <c r="F41" s="495"/>
-      <c r="G41" s="495"/>
-      <c r="H41" s="495"/>
-      <c r="I41" s="331"/>
-      <c r="J41" s="331"/>
-      <c r="K41" s="331"/>
-      <c r="L41" s="332"/>
-      <c r="M41" s="329"/>
-      <c r="N41" s="330"/>
+      <c r="D41" s="357"/>
+      <c r="E41" s="357"/>
+      <c r="F41" s="357"/>
+      <c r="G41" s="357"/>
+      <c r="H41" s="357"/>
+      <c r="I41" s="322"/>
+      <c r="J41" s="322"/>
+      <c r="K41" s="322"/>
+      <c r="L41" s="323"/>
+      <c r="M41" s="327"/>
+      <c r="N41" s="328"/>
       <c r="Q41" s="3" t="s">
         <v>149</v>
       </c>
@@ -11065,17 +11065,17 @@
         <v>36</v>
       </c>
       <c r="C42" s="151"/>
-      <c r="D42" s="495"/>
-      <c r="E42" s="495"/>
-      <c r="F42" s="495"/>
-      <c r="G42" s="495"/>
-      <c r="H42" s="495"/>
-      <c r="I42" s="331"/>
-      <c r="J42" s="331"/>
-      <c r="K42" s="331"/>
-      <c r="L42" s="332"/>
-      <c r="M42" s="329"/>
-      <c r="N42" s="330"/>
+      <c r="D42" s="357"/>
+      <c r="E42" s="357"/>
+      <c r="F42" s="357"/>
+      <c r="G42" s="357"/>
+      <c r="H42" s="357"/>
+      <c r="I42" s="322"/>
+      <c r="J42" s="322"/>
+      <c r="K42" s="322"/>
+      <c r="L42" s="323"/>
+      <c r="M42" s="327"/>
+      <c r="N42" s="328"/>
       <c r="Q42" s="3" t="s">
         <v>150</v>
       </c>
@@ -11088,17 +11088,17 @@
         <v>72</v>
       </c>
       <c r="C43" s="115"/>
-      <c r="D43" s="346"/>
-      <c r="E43" s="346"/>
-      <c r="F43" s="346"/>
-      <c r="G43" s="346"/>
-      <c r="H43" s="346"/>
-      <c r="I43" s="331"/>
-      <c r="J43" s="331"/>
-      <c r="K43" s="331"/>
-      <c r="L43" s="332"/>
-      <c r="M43" s="329"/>
-      <c r="N43" s="330"/>
+      <c r="D43" s="506"/>
+      <c r="E43" s="506"/>
+      <c r="F43" s="506"/>
+      <c r="G43" s="506"/>
+      <c r="H43" s="506"/>
+      <c r="I43" s="322"/>
+      <c r="J43" s="322"/>
+      <c r="K43" s="322"/>
+      <c r="L43" s="323"/>
+      <c r="M43" s="327"/>
+      <c r="N43" s="328"/>
       <c r="Q43" s="3" t="s">
         <v>151</v>
       </c>
@@ -11109,19 +11109,19 @@
         <v>2</v>
       </c>
       <c r="C44" s="262"/>
-      <c r="D44" s="333"/>
-      <c r="E44" s="334"/>
-      <c r="F44" s="335"/>
-      <c r="G44" s="348" t="s">
+      <c r="D44" s="449"/>
+      <c r="E44" s="450"/>
+      <c r="F44" s="451"/>
+      <c r="G44" s="445" t="s">
         <v>403</v>
       </c>
-      <c r="H44" s="348"/>
-      <c r="I44" s="331"/>
-      <c r="J44" s="331"/>
-      <c r="K44" s="331"/>
-      <c r="L44" s="332"/>
-      <c r="M44" s="329"/>
-      <c r="N44" s="330"/>
+      <c r="H44" s="445"/>
+      <c r="I44" s="322"/>
+      <c r="J44" s="322"/>
+      <c r="K44" s="322"/>
+      <c r="L44" s="323"/>
+      <c r="M44" s="327"/>
+      <c r="N44" s="328"/>
       <c r="Q44" s="3" t="s">
         <v>152</v>
       </c>
@@ -11132,17 +11132,17 @@
         <v>3</v>
       </c>
       <c r="C45" s="264"/>
-      <c r="D45" s="333"/>
-      <c r="E45" s="334"/>
-      <c r="F45" s="334"/>
-      <c r="G45" s="334"/>
-      <c r="H45" s="335"/>
-      <c r="I45" s="331"/>
-      <c r="J45" s="331"/>
-      <c r="K45" s="331"/>
-      <c r="L45" s="332"/>
-      <c r="M45" s="329"/>
-      <c r="N45" s="330"/>
+      <c r="D45" s="449"/>
+      <c r="E45" s="450"/>
+      <c r="F45" s="450"/>
+      <c r="G45" s="450"/>
+      <c r="H45" s="451"/>
+      <c r="I45" s="322"/>
+      <c r="J45" s="322"/>
+      <c r="K45" s="322"/>
+      <c r="L45" s="323"/>
+      <c r="M45" s="327"/>
+      <c r="N45" s="328"/>
       <c r="Q45" s="3" t="s">
         <v>153</v>
       </c>
@@ -11151,21 +11151,21 @@
       <c r="A46" s="171" t="s">
         <v>335</v>
       </c>
-      <c r="B46" s="444" t="s">
+      <c r="B46" s="333" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="444"/>
-      <c r="D46" s="444"/>
-      <c r="E46" s="444"/>
-      <c r="F46" s="444"/>
-      <c r="G46" s="444"/>
-      <c r="H46" s="445"/>
-      <c r="I46" s="331"/>
-      <c r="J46" s="331"/>
-      <c r="K46" s="331"/>
-      <c r="L46" s="332"/>
-      <c r="M46" s="329"/>
-      <c r="N46" s="330"/>
+      <c r="C46" s="333"/>
+      <c r="D46" s="333"/>
+      <c r="E46" s="333"/>
+      <c r="F46" s="333"/>
+      <c r="G46" s="333"/>
+      <c r="H46" s="334"/>
+      <c r="I46" s="322"/>
+      <c r="J46" s="322"/>
+      <c r="K46" s="322"/>
+      <c r="L46" s="323"/>
+      <c r="M46" s="327"/>
+      <c r="N46" s="328"/>
       <c r="Q46" s="3" t="s">
         <v>154</v>
       </c>
@@ -11176,17 +11176,17 @@
         <v>1</v>
       </c>
       <c r="C47" s="262"/>
-      <c r="D47" s="347"/>
-      <c r="E47" s="347"/>
-      <c r="F47" s="347"/>
-      <c r="G47" s="347"/>
-      <c r="H47" s="347"/>
-      <c r="I47" s="331"/>
-      <c r="J47" s="331"/>
-      <c r="K47" s="331"/>
-      <c r="L47" s="332"/>
-      <c r="M47" s="329"/>
-      <c r="N47" s="330"/>
+      <c r="D47" s="507"/>
+      <c r="E47" s="507"/>
+      <c r="F47" s="507"/>
+      <c r="G47" s="507"/>
+      <c r="H47" s="507"/>
+      <c r="I47" s="322"/>
+      <c r="J47" s="322"/>
+      <c r="K47" s="322"/>
+      <c r="L47" s="323"/>
+      <c r="M47" s="327"/>
+      <c r="N47" s="328"/>
       <c r="Q47" s="3" t="s">
         <v>155</v>
       </c>
@@ -11197,17 +11197,17 @@
         <v>2</v>
       </c>
       <c r="C48" s="262"/>
-      <c r="D48" s="347"/>
-      <c r="E48" s="347"/>
-      <c r="F48" s="347"/>
-      <c r="G48" s="347"/>
-      <c r="H48" s="347"/>
-      <c r="I48" s="331"/>
-      <c r="J48" s="331"/>
-      <c r="K48" s="331"/>
-      <c r="L48" s="332"/>
-      <c r="M48" s="329"/>
-      <c r="N48" s="330"/>
+      <c r="D48" s="507"/>
+      <c r="E48" s="507"/>
+      <c r="F48" s="507"/>
+      <c r="G48" s="507"/>
+      <c r="H48" s="507"/>
+      <c r="I48" s="322"/>
+      <c r="J48" s="322"/>
+      <c r="K48" s="322"/>
+      <c r="L48" s="323"/>
+      <c r="M48" s="327"/>
+      <c r="N48" s="328"/>
       <c r="Q48" s="3" t="s">
         <v>156</v>
       </c>
@@ -11218,19 +11218,19 @@
         <v>3</v>
       </c>
       <c r="C49" s="263"/>
-      <c r="D49" s="506"/>
-      <c r="E49" s="506"/>
-      <c r="F49" s="506"/>
-      <c r="G49" s="506"/>
-      <c r="H49" s="506"/>
-      <c r="I49" s="504" t="s">
+      <c r="D49" s="326"/>
+      <c r="E49" s="326"/>
+      <c r="F49" s="326"/>
+      <c r="G49" s="326"/>
+      <c r="H49" s="326"/>
+      <c r="I49" s="324" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="504"/>
-      <c r="K49" s="504"/>
-      <c r="L49" s="504"/>
-      <c r="M49" s="504"/>
-      <c r="N49" s="505"/>
+      <c r="J49" s="324"/>
+      <c r="K49" s="324"/>
+      <c r="L49" s="324"/>
+      <c r="M49" s="324"/>
+      <c r="N49" s="325"/>
       <c r="Q49" s="3" t="s">
         <v>157</v>
       </c>
@@ -11246,47 +11246,47 @@
       <c r="F50" s="112"/>
       <c r="G50" s="112"/>
       <c r="H50" s="112"/>
-      <c r="I50" s="423" t="s">
+      <c r="I50" s="434" t="s">
         <v>113</v>
       </c>
-      <c r="J50" s="423"/>
-      <c r="K50" s="423"/>
-      <c r="L50" s="423"/>
-      <c r="M50" s="423"/>
-      <c r="N50" s="424"/>
+      <c r="J50" s="434"/>
+      <c r="K50" s="434"/>
+      <c r="L50" s="434"/>
+      <c r="M50" s="434"/>
+      <c r="N50" s="435"/>
       <c r="Q50" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="415" t="s">
+      <c r="A51" s="426" t="s">
         <v>336</v>
       </c>
-      <c r="B51" s="367" t="s">
+      <c r="B51" s="458" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="367"/>
-      <c r="D51" s="349" t="s">
+      <c r="C51" s="458"/>
+      <c r="D51" s="461" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="350"/>
-      <c r="F51" s="370"/>
-      <c r="G51" s="349" t="s">
+      <c r="E51" s="462"/>
+      <c r="F51" s="463"/>
+      <c r="G51" s="461" t="s">
         <v>385</v>
       </c>
-      <c r="H51" s="350"/>
-      <c r="I51" s="351"/>
-      <c r="J51" s="507" t="s">
+      <c r="H51" s="462"/>
+      <c r="I51" s="508"/>
+      <c r="J51" s="329" t="s">
         <v>325</v>
       </c>
-      <c r="K51" s="508"/>
-      <c r="L51" s="341" t="s">
+      <c r="K51" s="330"/>
+      <c r="L51" s="501" t="s">
         <v>115</v>
       </c>
-      <c r="M51" s="417" t="s">
+      <c r="M51" s="428" t="s">
         <v>114</v>
       </c>
-      <c r="N51" s="411" t="s">
+      <c r="N51" s="422" t="s">
         <v>76</v>
       </c>
       <c r="Q51" s="3" t="s">
@@ -11294,43 +11294,43 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="416"/>
-      <c r="B52" s="368"/>
-      <c r="C52" s="368"/>
-      <c r="D52" s="352"/>
-      <c r="E52" s="353"/>
-      <c r="F52" s="371"/>
-      <c r="G52" s="352"/>
-      <c r="H52" s="353"/>
-      <c r="I52" s="354"/>
-      <c r="J52" s="509"/>
-      <c r="K52" s="510"/>
-      <c r="L52" s="341"/>
-      <c r="M52" s="417"/>
-      <c r="N52" s="411"/>
+      <c r="A52" s="427"/>
+      <c r="B52" s="459"/>
+      <c r="C52" s="459"/>
+      <c r="D52" s="464"/>
+      <c r="E52" s="465"/>
+      <c r="F52" s="466"/>
+      <c r="G52" s="464"/>
+      <c r="H52" s="465"/>
+      <c r="I52" s="509"/>
+      <c r="J52" s="331"/>
+      <c r="K52" s="332"/>
+      <c r="L52" s="501"/>
+      <c r="M52" s="428"/>
+      <c r="N52" s="422"/>
       <c r="Q52" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="272"/>
-      <c r="B53" s="369"/>
-      <c r="C53" s="369"/>
-      <c r="D53" s="355"/>
-      <c r="E53" s="356"/>
-      <c r="F53" s="372"/>
-      <c r="G53" s="355"/>
-      <c r="H53" s="356"/>
-      <c r="I53" s="357"/>
+      <c r="B53" s="460"/>
+      <c r="C53" s="460"/>
+      <c r="D53" s="467"/>
+      <c r="E53" s="468"/>
+      <c r="F53" s="444"/>
+      <c r="G53" s="467"/>
+      <c r="H53" s="468"/>
+      <c r="I53" s="510"/>
       <c r="J53" s="117" t="s">
         <v>26</v>
       </c>
       <c r="K53" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="342"/>
-      <c r="M53" s="418"/>
-      <c r="N53" s="412"/>
+      <c r="L53" s="502"/>
+      <c r="M53" s="429"/>
+      <c r="N53" s="423"/>
       <c r="O53" s="119"/>
       <c r="P53" s="119"/>
       <c r="Q53" s="3" t="s">
@@ -11343,12 +11343,12 @@
         <v>23</v>
       </c>
       <c r="C54" s="278"/>
-      <c r="D54" s="373"/>
-      <c r="E54" s="374"/>
-      <c r="F54" s="375"/>
-      <c r="G54" s="343"/>
-      <c r="H54" s="344"/>
-      <c r="I54" s="345"/>
+      <c r="D54" s="469"/>
+      <c r="E54" s="470"/>
+      <c r="F54" s="471"/>
+      <c r="G54" s="503"/>
+      <c r="H54" s="504"/>
+      <c r="I54" s="505"/>
       <c r="J54" s="29"/>
       <c r="K54" s="271"/>
       <c r="L54" s="185"/>
@@ -11364,12 +11364,12 @@
         <v>24</v>
       </c>
       <c r="C55" s="278"/>
-      <c r="D55" s="373"/>
-      <c r="E55" s="374"/>
-      <c r="F55" s="375"/>
-      <c r="G55" s="343"/>
-      <c r="H55" s="344"/>
-      <c r="I55" s="345"/>
+      <c r="D55" s="469"/>
+      <c r="E55" s="470"/>
+      <c r="F55" s="471"/>
+      <c r="G55" s="503"/>
+      <c r="H55" s="504"/>
+      <c r="I55" s="505"/>
       <c r="J55" s="29"/>
       <c r="K55" s="30"/>
       <c r="L55" s="281"/>
@@ -11385,12 +11385,12 @@
         <v>58</v>
       </c>
       <c r="C56" s="278"/>
-      <c r="D56" s="373"/>
-      <c r="E56" s="374"/>
-      <c r="F56" s="375"/>
-      <c r="G56" s="358"/>
-      <c r="H56" s="359"/>
-      <c r="I56" s="360"/>
+      <c r="D56" s="469"/>
+      <c r="E56" s="470"/>
+      <c r="F56" s="471"/>
+      <c r="G56" s="319"/>
+      <c r="H56" s="320"/>
+      <c r="I56" s="321"/>
       <c r="J56" s="29"/>
       <c r="K56" s="30"/>
       <c r="L56" s="185"/>
@@ -11406,12 +11406,12 @@
         <v>71</v>
       </c>
       <c r="C57" s="278"/>
-      <c r="D57" s="373"/>
-      <c r="E57" s="374"/>
-      <c r="F57" s="375"/>
-      <c r="G57" s="358"/>
-      <c r="H57" s="359"/>
-      <c r="I57" s="360"/>
+      <c r="D57" s="469"/>
+      <c r="E57" s="470"/>
+      <c r="F57" s="471"/>
+      <c r="G57" s="319"/>
+      <c r="H57" s="320"/>
+      <c r="I57" s="321"/>
       <c r="J57" s="29"/>
       <c r="K57" s="30"/>
       <c r="L57" s="185"/>
@@ -11427,12 +11427,12 @@
         <v>25</v>
       </c>
       <c r="C58" s="280"/>
-      <c r="D58" s="376"/>
-      <c r="E58" s="377"/>
-      <c r="F58" s="378"/>
-      <c r="G58" s="364"/>
-      <c r="H58" s="365"/>
-      <c r="I58" s="366"/>
+      <c r="D58" s="472"/>
+      <c r="E58" s="473"/>
+      <c r="F58" s="474"/>
+      <c r="G58" s="455"/>
+      <c r="H58" s="456"/>
+      <c r="I58" s="457"/>
       <c r="J58" s="275"/>
       <c r="K58" s="276"/>
       <c r="L58" s="23"/>
@@ -11443,45 +11443,45 @@
       </c>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="323" t="s">
+      <c r="A59" s="490" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="324"/>
-      <c r="C59" s="324"/>
-      <c r="D59" s="324"/>
-      <c r="E59" s="324"/>
-      <c r="F59" s="324"/>
-      <c r="G59" s="324"/>
-      <c r="H59" s="324"/>
-      <c r="I59" s="324"/>
-      <c r="J59" s="324"/>
-      <c r="K59" s="324"/>
-      <c r="L59" s="324"/>
-      <c r="M59" s="324"/>
-      <c r="N59" s="325"/>
+      <c r="B59" s="491"/>
+      <c r="C59" s="491"/>
+      <c r="D59" s="491"/>
+      <c r="E59" s="491"/>
+      <c r="F59" s="491"/>
+      <c r="G59" s="491"/>
+      <c r="H59" s="491"/>
+      <c r="I59" s="491"/>
+      <c r="J59" s="491"/>
+      <c r="K59" s="491"/>
+      <c r="L59" s="491"/>
+      <c r="M59" s="491"/>
+      <c r="N59" s="492"/>
       <c r="Q59" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="320" t="s">
+      <c r="A60" s="487" t="s">
         <v>392</v>
       </c>
-      <c r="B60" s="321"/>
-      <c r="C60" s="322"/>
-      <c r="D60" s="336"/>
-      <c r="E60" s="337"/>
-      <c r="F60" s="337"/>
-      <c r="G60" s="337"/>
-      <c r="H60" s="337"/>
-      <c r="I60" s="338"/>
-      <c r="J60" s="339" t="s">
+      <c r="B60" s="488"/>
+      <c r="C60" s="489"/>
+      <c r="D60" s="496"/>
+      <c r="E60" s="497"/>
+      <c r="F60" s="497"/>
+      <c r="G60" s="497"/>
+      <c r="H60" s="497"/>
+      <c r="I60" s="498"/>
+      <c r="J60" s="499" t="s">
         <v>393</v>
       </c>
-      <c r="K60" s="340"/>
-      <c r="L60" s="326"/>
-      <c r="M60" s="327"/>
-      <c r="N60" s="328"/>
+      <c r="K60" s="500"/>
+      <c r="L60" s="493"/>
+      <c r="M60" s="494"/>
+      <c r="N60" s="495"/>
       <c r="Q60" s="3" t="s">
         <v>168</v>
       </c>
@@ -11489,22 +11489,22 @@
       <c r="S60" s="120"/>
     </row>
     <row r="61" spans="1:19" s="300" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="319" t="s">
+      <c r="A61" s="486" t="s">
         <v>396</v>
       </c>
-      <c r="B61" s="319"/>
-      <c r="C61" s="319"/>
-      <c r="D61" s="319"/>
-      <c r="E61" s="319"/>
-      <c r="F61" s="319"/>
-      <c r="G61" s="319"/>
-      <c r="H61" s="319"/>
-      <c r="I61" s="319"/>
-      <c r="J61" s="319"/>
-      <c r="K61" s="319"/>
-      <c r="L61" s="319"/>
-      <c r="M61" s="319"/>
-      <c r="N61" s="319"/>
+      <c r="B61" s="486"/>
+      <c r="C61" s="486"/>
+      <c r="D61" s="486"/>
+      <c r="E61" s="486"/>
+      <c r="F61" s="486"/>
+      <c r="G61" s="486"/>
+      <c r="H61" s="486"/>
+      <c r="I61" s="486"/>
+      <c r="J61" s="486"/>
+      <c r="K61" s="486"/>
+      <c r="L61" s="486"/>
+      <c r="M61" s="486"/>
+      <c r="N61" s="486"/>
       <c r="Q61" s="301" t="s">
         <v>397</v>
       </c>
@@ -15233,15 +15233,114 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="141">
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="A61:N61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A59:N59"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G51:I53"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B51:C53"/>
+    <mergeCell ref="D51:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="I34:N34"/>
     <mergeCell ref="I41:L41"/>
     <mergeCell ref="M41:N41"/>
     <mergeCell ref="M42:N42"/>
@@ -15266,114 +15365,15 @@
     <mergeCell ref="D17:F18"/>
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D51:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A61:N61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A59:N59"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G51:I53"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="B46:H46"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -15868,7 +15868,7 @@
   </sheetPr>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A40" zoomScale="130" zoomScaleNormal="110" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="110" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="A48" sqref="A1:M48"/>
     </sheetView>
   </sheetViews>
@@ -15890,76 +15890,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="515"/>
-      <c r="B1" s="516"/>
-      <c r="C1" s="516"/>
-      <c r="D1" s="516"/>
-      <c r="E1" s="516"/>
-      <c r="F1" s="516"/>
-      <c r="G1" s="516"/>
-      <c r="H1" s="516"/>
-      <c r="I1" s="516"/>
-      <c r="J1" s="516"/>
-      <c r="K1" s="516"/>
-      <c r="L1" s="516"/>
-      <c r="M1" s="517"/>
+      <c r="A1" s="547"/>
+      <c r="B1" s="548"/>
+      <c r="C1" s="548"/>
+      <c r="D1" s="548"/>
+      <c r="E1" s="548"/>
+      <c r="F1" s="548"/>
+      <c r="G1" s="548"/>
+      <c r="H1" s="548"/>
+      <c r="I1" s="548"/>
+      <c r="J1" s="548"/>
+      <c r="K1" s="548"/>
+      <c r="L1" s="548"/>
+      <c r="M1" s="549"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="528" t="s">
+      <c r="A2" s="557" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="529"/>
-      <c r="C2" s="529"/>
-      <c r="D2" s="529"/>
-      <c r="E2" s="529"/>
-      <c r="F2" s="529"/>
-      <c r="G2" s="529"/>
-      <c r="H2" s="529"/>
-      <c r="I2" s="529"/>
-      <c r="J2" s="529"/>
-      <c r="K2" s="529"/>
-      <c r="L2" s="529"/>
-      <c r="M2" s="530"/>
+      <c r="B2" s="558"/>
+      <c r="C2" s="558"/>
+      <c r="D2" s="558"/>
+      <c r="E2" s="558"/>
+      <c r="F2" s="558"/>
+      <c r="G2" s="558"/>
+      <c r="H2" s="558"/>
+      <c r="I2" s="558"/>
+      <c r="J2" s="558"/>
+      <c r="K2" s="558"/>
+      <c r="L2" s="558"/>
+      <c r="M2" s="559"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="155" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="518" t="s">
+      <c r="B3" s="550" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="518"/>
-      <c r="D3" s="518"/>
-      <c r="E3" s="519"/>
-      <c r="F3" s="526" t="s">
+      <c r="C3" s="550"/>
+      <c r="D3" s="550"/>
+      <c r="E3" s="551"/>
+      <c r="F3" s="555" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="522" t="s">
+      <c r="G3" s="552" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="519"/>
-      <c r="I3" s="522" t="s">
+      <c r="H3" s="551"/>
+      <c r="I3" s="552" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="518"/>
-      <c r="K3" s="519"/>
-      <c r="L3" s="524" t="s">
+      <c r="J3" s="550"/>
+      <c r="K3" s="551"/>
+      <c r="L3" s="553" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="525"/>
+      <c r="M3" s="554"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="520"/>
-      <c r="C4" s="520"/>
-      <c r="D4" s="520"/>
-      <c r="E4" s="521"/>
-      <c r="F4" s="527"/>
-      <c r="G4" s="523"/>
-      <c r="H4" s="521"/>
-      <c r="I4" s="523"/>
-      <c r="J4" s="520"/>
-      <c r="K4" s="521"/>
+      <c r="B4" s="526"/>
+      <c r="C4" s="526"/>
+      <c r="D4" s="526"/>
+      <c r="E4" s="527"/>
+      <c r="F4" s="556"/>
+      <c r="G4" s="538"/>
+      <c r="H4" s="527"/>
+      <c r="I4" s="538"/>
+      <c r="J4" s="526"/>
+      <c r="K4" s="527"/>
       <c r="L4" s="6" t="s">
         <v>91</v>
       </c>
@@ -15968,143 +15968,143 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="535"/>
-      <c r="B5" s="536"/>
-      <c r="C5" s="536"/>
-      <c r="D5" s="536"/>
-      <c r="E5" s="536"/>
+      <c r="A5" s="536"/>
+      <c r="B5" s="511"/>
+      <c r="C5" s="511"/>
+      <c r="D5" s="511"/>
+      <c r="E5" s="511"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="533"/>
-      <c r="H5" s="533"/>
-      <c r="I5" s="534"/>
-      <c r="J5" s="534"/>
-      <c r="K5" s="534"/>
+      <c r="G5" s="535"/>
+      <c r="H5" s="535"/>
+      <c r="I5" s="539"/>
+      <c r="J5" s="539"/>
+      <c r="K5" s="539"/>
       <c r="L5" s="11"/>
       <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="535"/>
-      <c r="B6" s="536"/>
-      <c r="C6" s="536"/>
-      <c r="D6" s="536"/>
-      <c r="E6" s="536"/>
+      <c r="A6" s="536"/>
+      <c r="B6" s="511"/>
+      <c r="C6" s="511"/>
+      <c r="D6" s="511"/>
+      <c r="E6" s="511"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="544"/>
-      <c r="H6" s="545"/>
-      <c r="I6" s="534"/>
-      <c r="J6" s="534"/>
-      <c r="K6" s="534"/>
+      <c r="G6" s="566"/>
+      <c r="H6" s="567"/>
+      <c r="I6" s="539"/>
+      <c r="J6" s="539"/>
+      <c r="K6" s="539"/>
       <c r="L6" s="11"/>
       <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="535"/>
-      <c r="B7" s="536"/>
-      <c r="C7" s="536"/>
-      <c r="D7" s="536"/>
-      <c r="E7" s="536"/>
+      <c r="A7" s="536"/>
+      <c r="B7" s="511"/>
+      <c r="C7" s="511"/>
+      <c r="D7" s="511"/>
+      <c r="E7" s="511"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="533"/>
-      <c r="H7" s="533"/>
-      <c r="I7" s="534"/>
-      <c r="J7" s="534"/>
-      <c r="K7" s="534"/>
+      <c r="G7" s="535"/>
+      <c r="H7" s="535"/>
+      <c r="I7" s="539"/>
+      <c r="J7" s="539"/>
+      <c r="K7" s="539"/>
       <c r="L7" s="11"/>
       <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="535"/>
-      <c r="B8" s="536"/>
-      <c r="C8" s="536"/>
-      <c r="D8" s="536"/>
-      <c r="E8" s="536"/>
+      <c r="A8" s="536"/>
+      <c r="B8" s="511"/>
+      <c r="C8" s="511"/>
+      <c r="D8" s="511"/>
+      <c r="E8" s="511"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="533"/>
-      <c r="H8" s="533"/>
-      <c r="I8" s="534"/>
-      <c r="J8" s="534"/>
-      <c r="K8" s="534"/>
+      <c r="G8" s="535"/>
+      <c r="H8" s="535"/>
+      <c r="I8" s="539"/>
+      <c r="J8" s="539"/>
+      <c r="K8" s="539"/>
       <c r="L8" s="11"/>
       <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="535"/>
-      <c r="B9" s="536"/>
-      <c r="C9" s="536"/>
-      <c r="D9" s="536"/>
-      <c r="E9" s="536"/>
+      <c r="A9" s="536"/>
+      <c r="B9" s="511"/>
+      <c r="C9" s="511"/>
+      <c r="D9" s="511"/>
+      <c r="E9" s="511"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="533"/>
-      <c r="H9" s="533"/>
-      <c r="I9" s="534"/>
-      <c r="J9" s="534"/>
-      <c r="K9" s="534"/>
+      <c r="G9" s="535"/>
+      <c r="H9" s="535"/>
+      <c r="I9" s="539"/>
+      <c r="J9" s="539"/>
+      <c r="K9" s="539"/>
       <c r="L9" s="11"/>
       <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="535"/>
-      <c r="B10" s="536"/>
-      <c r="C10" s="536"/>
-      <c r="D10" s="536"/>
-      <c r="E10" s="536"/>
+      <c r="A10" s="536"/>
+      <c r="B10" s="511"/>
+      <c r="C10" s="511"/>
+      <c r="D10" s="511"/>
+      <c r="E10" s="511"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="533"/>
-      <c r="H10" s="533"/>
-      <c r="I10" s="534"/>
-      <c r="J10" s="534"/>
-      <c r="K10" s="534"/>
+      <c r="G10" s="535"/>
+      <c r="H10" s="535"/>
+      <c r="I10" s="539"/>
+      <c r="J10" s="539"/>
+      <c r="K10" s="539"/>
       <c r="L10" s="11"/>
       <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="551"/>
-      <c r="B11" s="552"/>
-      <c r="C11" s="552"/>
-      <c r="D11" s="552"/>
-      <c r="E11" s="552"/>
+      <c r="A11" s="523"/>
+      <c r="B11" s="518"/>
+      <c r="C11" s="518"/>
+      <c r="D11" s="518"/>
+      <c r="E11" s="518"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="559"/>
-      <c r="H11" s="559"/>
-      <c r="I11" s="546"/>
-      <c r="J11" s="546"/>
-      <c r="K11" s="546"/>
+      <c r="G11" s="534"/>
+      <c r="H11" s="534"/>
+      <c r="I11" s="540"/>
+      <c r="J11" s="540"/>
+      <c r="K11" s="540"/>
       <c r="L11" s="13"/>
       <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" s="8" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="553" t="s">
+      <c r="A12" s="528" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="554"/>
-      <c r="C12" s="554"/>
-      <c r="D12" s="554"/>
-      <c r="E12" s="554"/>
-      <c r="F12" s="554"/>
-      <c r="G12" s="554"/>
-      <c r="H12" s="554"/>
-      <c r="I12" s="554"/>
-      <c r="J12" s="554"/>
-      <c r="K12" s="554"/>
-      <c r="L12" s="554"/>
-      <c r="M12" s="555"/>
+      <c r="B12" s="529"/>
+      <c r="C12" s="529"/>
+      <c r="D12" s="529"/>
+      <c r="E12" s="529"/>
+      <c r="F12" s="529"/>
+      <c r="G12" s="529"/>
+      <c r="H12" s="529"/>
+      <c r="I12" s="529"/>
+      <c r="J12" s="529"/>
+      <c r="K12" s="529"/>
+      <c r="L12" s="529"/>
+      <c r="M12" s="530"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="556" t="s">
+      <c r="A13" s="531" t="s">
         <v>384</v>
       </c>
-      <c r="B13" s="557"/>
-      <c r="C13" s="557"/>
-      <c r="D13" s="557"/>
-      <c r="E13" s="557"/>
-      <c r="F13" s="557"/>
-      <c r="G13" s="557"/>
-      <c r="H13" s="557"/>
-      <c r="I13" s="557"/>
-      <c r="J13" s="557"/>
-      <c r="K13" s="557"/>
-      <c r="L13" s="557"/>
-      <c r="M13" s="558"/>
+      <c r="B13" s="532"/>
+      <c r="C13" s="532"/>
+      <c r="D13" s="532"/>
+      <c r="E13" s="532"/>
+      <c r="F13" s="532"/>
+      <c r="G13" s="532"/>
+      <c r="H13" s="532"/>
+      <c r="I13" s="532"/>
+      <c r="J13" s="532"/>
+      <c r="K13" s="532"/>
+      <c r="L13" s="532"/>
+      <c r="M13" s="533"/>
     </row>
     <row r="14" spans="1:13" s="244" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="251" t="s">
@@ -16127,515 +16127,515 @@
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="542" t="s">
+      <c r="B15" s="524" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="543"/>
-      <c r="D15" s="541" t="s">
+      <c r="C15" s="525"/>
+      <c r="D15" s="537" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="542"/>
-      <c r="F15" s="543"/>
-      <c r="G15" s="541" t="s">
+      <c r="E15" s="524"/>
+      <c r="F15" s="525"/>
+      <c r="G15" s="537" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="542"/>
-      <c r="I15" s="543"/>
-      <c r="J15" s="547" t="s">
+      <c r="H15" s="524"/>
+      <c r="I15" s="525"/>
+      <c r="J15" s="541" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="537" t="s">
+      <c r="K15" s="562" t="s">
         <v>346</v>
       </c>
-      <c r="L15" s="562" t="s">
+      <c r="L15" s="516" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="531" t="s">
+      <c r="M15" s="560" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="520"/>
-      <c r="C16" s="521"/>
-      <c r="D16" s="541"/>
-      <c r="E16" s="542"/>
-      <c r="F16" s="543"/>
-      <c r="G16" s="541"/>
-      <c r="H16" s="542"/>
-      <c r="I16" s="543"/>
-      <c r="J16" s="547"/>
-      <c r="K16" s="537"/>
-      <c r="L16" s="562"/>
-      <c r="M16" s="531"/>
+      <c r="B16" s="526"/>
+      <c r="C16" s="527"/>
+      <c r="D16" s="537"/>
+      <c r="E16" s="524"/>
+      <c r="F16" s="525"/>
+      <c r="G16" s="537"/>
+      <c r="H16" s="524"/>
+      <c r="I16" s="525"/>
+      <c r="J16" s="541"/>
+      <c r="K16" s="562"/>
+      <c r="L16" s="516"/>
+      <c r="M16" s="560"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="539" t="s">
+      <c r="A17" s="564" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="540"/>
+      <c r="B17" s="565"/>
       <c r="C17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="523"/>
-      <c r="E17" s="520"/>
-      <c r="F17" s="521"/>
-      <c r="G17" s="523"/>
-      <c r="H17" s="520"/>
-      <c r="I17" s="521"/>
-      <c r="J17" s="548"/>
-      <c r="K17" s="538"/>
-      <c r="L17" s="563"/>
-      <c r="M17" s="532"/>
+      <c r="D17" s="538"/>
+      <c r="E17" s="526"/>
+      <c r="F17" s="527"/>
+      <c r="G17" s="538"/>
+      <c r="H17" s="526"/>
+      <c r="I17" s="527"/>
+      <c r="J17" s="542"/>
+      <c r="K17" s="563"/>
+      <c r="L17" s="517"/>
+      <c r="M17" s="561"/>
     </row>
     <row r="18" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="549"/>
-      <c r="B18" s="550"/>
+      <c r="A18" s="512"/>
+      <c r="B18" s="513"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="536"/>
-      <c r="E18" s="536"/>
-      <c r="F18" s="536"/>
-      <c r="G18" s="536"/>
-      <c r="H18" s="536"/>
-      <c r="I18" s="536"/>
+      <c r="D18" s="511"/>
+      <c r="E18" s="511"/>
+      <c r="F18" s="511"/>
+      <c r="G18" s="511"/>
+      <c r="H18" s="511"/>
+      <c r="I18" s="511"/>
       <c r="J18" s="16"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="549"/>
-      <c r="B19" s="550"/>
+      <c r="A19" s="512"/>
+      <c r="B19" s="513"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="536"/>
-      <c r="E19" s="536"/>
-      <c r="F19" s="536"/>
-      <c r="G19" s="536"/>
-      <c r="H19" s="536"/>
-      <c r="I19" s="536"/>
+      <c r="D19" s="511"/>
+      <c r="E19" s="511"/>
+      <c r="F19" s="511"/>
+      <c r="G19" s="511"/>
+      <c r="H19" s="511"/>
+      <c r="I19" s="511"/>
       <c r="J19" s="16"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="549"/>
-      <c r="B20" s="550"/>
+      <c r="A20" s="512"/>
+      <c r="B20" s="513"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="536"/>
-      <c r="E20" s="536"/>
-      <c r="F20" s="536"/>
-      <c r="G20" s="536"/>
-      <c r="H20" s="536"/>
-      <c r="I20" s="536"/>
+      <c r="D20" s="511"/>
+      <c r="E20" s="511"/>
+      <c r="F20" s="511"/>
+      <c r="G20" s="511"/>
+      <c r="H20" s="511"/>
+      <c r="I20" s="511"/>
       <c r="J20" s="16"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="549"/>
-      <c r="B21" s="550"/>
+      <c r="A21" s="512"/>
+      <c r="B21" s="513"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="536"/>
-      <c r="E21" s="536"/>
-      <c r="F21" s="536"/>
-      <c r="G21" s="536"/>
-      <c r="H21" s="536"/>
-      <c r="I21" s="536"/>
+      <c r="D21" s="511"/>
+      <c r="E21" s="511"/>
+      <c r="F21" s="511"/>
+      <c r="G21" s="511"/>
+      <c r="H21" s="511"/>
+      <c r="I21" s="511"/>
       <c r="J21" s="16"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="549"/>
-      <c r="B22" s="550"/>
+      <c r="A22" s="512"/>
+      <c r="B22" s="513"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="536"/>
-      <c r="E22" s="536"/>
-      <c r="F22" s="536"/>
-      <c r="G22" s="536"/>
-      <c r="H22" s="536"/>
-      <c r="I22" s="536"/>
+      <c r="D22" s="511"/>
+      <c r="E22" s="511"/>
+      <c r="F22" s="511"/>
+      <c r="G22" s="511"/>
+      <c r="H22" s="511"/>
+      <c r="I22" s="511"/>
       <c r="J22" s="16"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="549"/>
-      <c r="B23" s="550"/>
+      <c r="A23" s="512"/>
+      <c r="B23" s="513"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="536"/>
-      <c r="E23" s="536"/>
-      <c r="F23" s="536"/>
-      <c r="G23" s="536"/>
-      <c r="H23" s="536"/>
-      <c r="I23" s="536"/>
+      <c r="D23" s="511"/>
+      <c r="E23" s="511"/>
+      <c r="F23" s="511"/>
+      <c r="G23" s="511"/>
+      <c r="H23" s="511"/>
+      <c r="I23" s="511"/>
       <c r="J23" s="16"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="549"/>
-      <c r="B24" s="550"/>
+      <c r="A24" s="512"/>
+      <c r="B24" s="513"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="536"/>
-      <c r="E24" s="536"/>
-      <c r="F24" s="536"/>
-      <c r="G24" s="536"/>
-      <c r="H24" s="536"/>
-      <c r="I24" s="536"/>
+      <c r="D24" s="511"/>
+      <c r="E24" s="511"/>
+      <c r="F24" s="511"/>
+      <c r="G24" s="511"/>
+      <c r="H24" s="511"/>
+      <c r="I24" s="511"/>
       <c r="J24" s="16"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="549"/>
-      <c r="B25" s="550"/>
+      <c r="A25" s="512"/>
+      <c r="B25" s="513"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="536"/>
-      <c r="E25" s="536"/>
-      <c r="F25" s="536"/>
-      <c r="G25" s="536"/>
-      <c r="H25" s="536"/>
-      <c r="I25" s="536"/>
+      <c r="D25" s="511"/>
+      <c r="E25" s="511"/>
+      <c r="F25" s="511"/>
+      <c r="G25" s="511"/>
+      <c r="H25" s="511"/>
+      <c r="I25" s="511"/>
       <c r="J25" s="16"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="549"/>
-      <c r="B26" s="550"/>
+      <c r="A26" s="512"/>
+      <c r="B26" s="513"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="536"/>
-      <c r="E26" s="536"/>
-      <c r="F26" s="536"/>
-      <c r="G26" s="536"/>
-      <c r="H26" s="536"/>
-      <c r="I26" s="536"/>
+      <c r="D26" s="511"/>
+      <c r="E26" s="511"/>
+      <c r="F26" s="511"/>
+      <c r="G26" s="511"/>
+      <c r="H26" s="511"/>
+      <c r="I26" s="511"/>
       <c r="J26" s="16"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="549"/>
-      <c r="B27" s="550"/>
+      <c r="A27" s="512"/>
+      <c r="B27" s="513"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="536"/>
-      <c r="E27" s="536"/>
-      <c r="F27" s="536"/>
-      <c r="G27" s="536"/>
-      <c r="H27" s="536"/>
-      <c r="I27" s="536"/>
+      <c r="D27" s="511"/>
+      <c r="E27" s="511"/>
+      <c r="F27" s="511"/>
+      <c r="G27" s="511"/>
+      <c r="H27" s="511"/>
+      <c r="I27" s="511"/>
       <c r="J27" s="16"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="549"/>
-      <c r="B28" s="550"/>
+      <c r="A28" s="512"/>
+      <c r="B28" s="513"/>
       <c r="C28" s="27"/>
-      <c r="D28" s="536"/>
-      <c r="E28" s="536"/>
-      <c r="F28" s="536"/>
-      <c r="G28" s="536"/>
-      <c r="H28" s="536"/>
-      <c r="I28" s="536"/>
+      <c r="D28" s="511"/>
+      <c r="E28" s="511"/>
+      <c r="F28" s="511"/>
+      <c r="G28" s="511"/>
+      <c r="H28" s="511"/>
+      <c r="I28" s="511"/>
       <c r="J28" s="16"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="549"/>
-      <c r="B29" s="550"/>
+      <c r="A29" s="512"/>
+      <c r="B29" s="513"/>
       <c r="C29" s="27"/>
-      <c r="D29" s="536"/>
-      <c r="E29" s="536"/>
-      <c r="F29" s="536"/>
-      <c r="G29" s="536"/>
-      <c r="H29" s="536"/>
-      <c r="I29" s="536"/>
+      <c r="D29" s="511"/>
+      <c r="E29" s="511"/>
+      <c r="F29" s="511"/>
+      <c r="G29" s="511"/>
+      <c r="H29" s="511"/>
+      <c r="I29" s="511"/>
       <c r="J29" s="16"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="549"/>
-      <c r="B30" s="550"/>
+      <c r="A30" s="512"/>
+      <c r="B30" s="513"/>
       <c r="C30" s="27"/>
-      <c r="D30" s="536"/>
-      <c r="E30" s="536"/>
-      <c r="F30" s="536"/>
-      <c r="G30" s="536"/>
-      <c r="H30" s="536"/>
-      <c r="I30" s="536"/>
+      <c r="D30" s="511"/>
+      <c r="E30" s="511"/>
+      <c r="F30" s="511"/>
+      <c r="G30" s="511"/>
+      <c r="H30" s="511"/>
+      <c r="I30" s="511"/>
       <c r="J30" s="16"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="549"/>
-      <c r="B31" s="550"/>
+      <c r="A31" s="512"/>
+      <c r="B31" s="513"/>
       <c r="C31" s="27"/>
-      <c r="D31" s="536"/>
-      <c r="E31" s="536"/>
-      <c r="F31" s="536"/>
-      <c r="G31" s="536"/>
-      <c r="H31" s="536"/>
-      <c r="I31" s="536"/>
+      <c r="D31" s="511"/>
+      <c r="E31" s="511"/>
+      <c r="F31" s="511"/>
+      <c r="G31" s="511"/>
+      <c r="H31" s="511"/>
+      <c r="I31" s="511"/>
       <c r="J31" s="16"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="1:13" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="549"/>
-      <c r="B32" s="550"/>
+      <c r="A32" s="512"/>
+      <c r="B32" s="513"/>
       <c r="C32" s="27"/>
-      <c r="D32" s="536"/>
-      <c r="E32" s="536"/>
-      <c r="F32" s="536"/>
-      <c r="G32" s="536"/>
-      <c r="H32" s="536"/>
-      <c r="I32" s="536"/>
+      <c r="D32" s="511"/>
+      <c r="E32" s="511"/>
+      <c r="F32" s="511"/>
+      <c r="G32" s="511"/>
+      <c r="H32" s="511"/>
+      <c r="I32" s="511"/>
       <c r="J32" s="16"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="12"/>
     </row>
     <row r="33" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="549"/>
-      <c r="B33" s="550"/>
+      <c r="A33" s="512"/>
+      <c r="B33" s="513"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="536"/>
-      <c r="E33" s="536"/>
-      <c r="F33" s="536"/>
-      <c r="G33" s="536"/>
-      <c r="H33" s="536"/>
-      <c r="I33" s="536"/>
+      <c r="D33" s="511"/>
+      <c r="E33" s="511"/>
+      <c r="F33" s="511"/>
+      <c r="G33" s="511"/>
+      <c r="H33" s="511"/>
+      <c r="I33" s="511"/>
       <c r="J33" s="16"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="549"/>
-      <c r="B34" s="550"/>
+      <c r="A34" s="512"/>
+      <c r="B34" s="513"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="536"/>
-      <c r="E34" s="536"/>
-      <c r="F34" s="536"/>
-      <c r="G34" s="536"/>
-      <c r="H34" s="536"/>
-      <c r="I34" s="536"/>
+      <c r="D34" s="511"/>
+      <c r="E34" s="511"/>
+      <c r="F34" s="511"/>
+      <c r="G34" s="511"/>
+      <c r="H34" s="511"/>
+      <c r="I34" s="511"/>
       <c r="J34" s="16"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="12"/>
     </row>
     <row r="35" spans="1:14" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="549"/>
-      <c r="B35" s="550"/>
+      <c r="A35" s="512"/>
+      <c r="B35" s="513"/>
       <c r="C35" s="27"/>
-      <c r="D35" s="536"/>
-      <c r="E35" s="536"/>
-      <c r="F35" s="536"/>
-      <c r="G35" s="536"/>
-      <c r="H35" s="536"/>
-      <c r="I35" s="536"/>
+      <c r="D35" s="511"/>
+      <c r="E35" s="511"/>
+      <c r="F35" s="511"/>
+      <c r="G35" s="511"/>
+      <c r="H35" s="511"/>
+      <c r="I35" s="511"/>
       <c r="J35" s="16"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="12"/>
     </row>
     <row r="36" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="549"/>
-      <c r="B36" s="550"/>
+      <c r="A36" s="512"/>
+      <c r="B36" s="513"/>
       <c r="C36" s="27"/>
-      <c r="D36" s="536"/>
-      <c r="E36" s="536"/>
-      <c r="F36" s="536"/>
-      <c r="G36" s="536"/>
-      <c r="H36" s="536"/>
-      <c r="I36" s="536"/>
+      <c r="D36" s="511"/>
+      <c r="E36" s="511"/>
+      <c r="F36" s="511"/>
+      <c r="G36" s="511"/>
+      <c r="H36" s="511"/>
+      <c r="I36" s="511"/>
       <c r="J36" s="16"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="12"/>
     </row>
     <row r="37" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="549"/>
-      <c r="B37" s="550"/>
+      <c r="A37" s="512"/>
+      <c r="B37" s="513"/>
       <c r="C37" s="27"/>
-      <c r="D37" s="536"/>
-      <c r="E37" s="536"/>
-      <c r="F37" s="536"/>
-      <c r="G37" s="536"/>
-      <c r="H37" s="536"/>
-      <c r="I37" s="536"/>
+      <c r="D37" s="511"/>
+      <c r="E37" s="511"/>
+      <c r="F37" s="511"/>
+      <c r="G37" s="511"/>
+      <c r="H37" s="511"/>
+      <c r="I37" s="511"/>
       <c r="J37" s="16"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="549"/>
-      <c r="B38" s="550"/>
+      <c r="A38" s="512"/>
+      <c r="B38" s="513"/>
       <c r="C38" s="27"/>
-      <c r="D38" s="536"/>
-      <c r="E38" s="536"/>
-      <c r="F38" s="536"/>
-      <c r="G38" s="536"/>
-      <c r="H38" s="536"/>
-      <c r="I38" s="536"/>
+      <c r="D38" s="511"/>
+      <c r="E38" s="511"/>
+      <c r="F38" s="511"/>
+      <c r="G38" s="511"/>
+      <c r="H38" s="511"/>
+      <c r="I38" s="511"/>
       <c r="J38" s="16"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="549"/>
-      <c r="B39" s="550"/>
+      <c r="A39" s="512"/>
+      <c r="B39" s="513"/>
       <c r="C39" s="27"/>
-      <c r="D39" s="536"/>
-      <c r="E39" s="536"/>
-      <c r="F39" s="536"/>
-      <c r="G39" s="536"/>
-      <c r="H39" s="536"/>
-      <c r="I39" s="536"/>
+      <c r="D39" s="511"/>
+      <c r="E39" s="511"/>
+      <c r="F39" s="511"/>
+      <c r="G39" s="511"/>
+      <c r="H39" s="511"/>
+      <c r="I39" s="511"/>
       <c r="J39" s="16"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="12"/>
     </row>
     <row r="40" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="549"/>
-      <c r="B40" s="550"/>
+      <c r="A40" s="512"/>
+      <c r="B40" s="513"/>
       <c r="C40" s="27"/>
-      <c r="D40" s="536"/>
-      <c r="E40" s="536"/>
-      <c r="F40" s="536"/>
-      <c r="G40" s="536"/>
-      <c r="H40" s="536"/>
-      <c r="I40" s="536"/>
+      <c r="D40" s="511"/>
+      <c r="E40" s="511"/>
+      <c r="F40" s="511"/>
+      <c r="G40" s="511"/>
+      <c r="H40" s="511"/>
+      <c r="I40" s="511"/>
       <c r="J40" s="16"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="12"/>
     </row>
     <row r="41" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="549"/>
-      <c r="B41" s="550"/>
+      <c r="A41" s="512"/>
+      <c r="B41" s="513"/>
       <c r="C41" s="27"/>
-      <c r="D41" s="536"/>
-      <c r="E41" s="536"/>
-      <c r="F41" s="536"/>
-      <c r="G41" s="536"/>
-      <c r="H41" s="536"/>
-      <c r="I41" s="536"/>
+      <c r="D41" s="511"/>
+      <c r="E41" s="511"/>
+      <c r="F41" s="511"/>
+      <c r="G41" s="511"/>
+      <c r="H41" s="511"/>
+      <c r="I41" s="511"/>
       <c r="J41" s="16"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="12"/>
     </row>
     <row r="42" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="549"/>
-      <c r="B42" s="550"/>
+      <c r="A42" s="512"/>
+      <c r="B42" s="513"/>
       <c r="C42" s="27"/>
-      <c r="D42" s="536"/>
-      <c r="E42" s="536"/>
-      <c r="F42" s="536"/>
-      <c r="G42" s="536"/>
-      <c r="H42" s="536"/>
-      <c r="I42" s="536"/>
+      <c r="D42" s="511"/>
+      <c r="E42" s="511"/>
+      <c r="F42" s="511"/>
+      <c r="G42" s="511"/>
+      <c r="H42" s="511"/>
+      <c r="I42" s="511"/>
       <c r="J42" s="16"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="12"/>
     </row>
     <row r="43" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="549"/>
-      <c r="B43" s="550"/>
+      <c r="A43" s="512"/>
+      <c r="B43" s="513"/>
       <c r="C43" s="27"/>
-      <c r="D43" s="536"/>
-      <c r="E43" s="536"/>
-      <c r="F43" s="536"/>
-      <c r="G43" s="536"/>
-      <c r="H43" s="536"/>
-      <c r="I43" s="536"/>
+      <c r="D43" s="511"/>
+      <c r="E43" s="511"/>
+      <c r="F43" s="511"/>
+      <c r="G43" s="511"/>
+      <c r="H43" s="511"/>
+      <c r="I43" s="511"/>
       <c r="J43" s="16"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
     </row>
     <row r="44" spans="1:14" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="549"/>
-      <c r="B44" s="550"/>
+      <c r="A44" s="512"/>
+      <c r="B44" s="513"/>
       <c r="C44" s="239"/>
-      <c r="D44" s="536"/>
-      <c r="E44" s="536"/>
-      <c r="F44" s="536"/>
-      <c r="G44" s="536"/>
-      <c r="H44" s="536"/>
-      <c r="I44" s="536"/>
+      <c r="D44" s="511"/>
+      <c r="E44" s="511"/>
+      <c r="F44" s="511"/>
+      <c r="G44" s="511"/>
+      <c r="H44" s="511"/>
+      <c r="I44" s="511"/>
       <c r="J44" s="16"/>
       <c r="K44" s="240"/>
       <c r="L44" s="240"/>
       <c r="M44" s="12"/>
     </row>
     <row r="45" spans="1:14" s="15" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="560"/>
-      <c r="B45" s="561"/>
+      <c r="A45" s="514"/>
+      <c r="B45" s="515"/>
       <c r="C45" s="28"/>
-      <c r="D45" s="552"/>
-      <c r="E45" s="552"/>
-      <c r="F45" s="552"/>
-      <c r="G45" s="552"/>
-      <c r="H45" s="552"/>
-      <c r="I45" s="552"/>
+      <c r="D45" s="518"/>
+      <c r="E45" s="518"/>
+      <c r="F45" s="518"/>
+      <c r="G45" s="518"/>
+      <c r="H45" s="518"/>
+      <c r="I45" s="518"/>
       <c r="J45" s="17"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="14"/>
     </row>
     <row r="46" spans="1:14" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="564" t="s">
+      <c r="A46" s="519" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="565"/>
-      <c r="C46" s="565"/>
-      <c r="D46" s="565"/>
-      <c r="E46" s="565"/>
-      <c r="F46" s="565"/>
-      <c r="G46" s="565"/>
-      <c r="H46" s="565"/>
-      <c r="I46" s="565"/>
-      <c r="J46" s="565"/>
-      <c r="K46" s="566"/>
-      <c r="L46" s="566"/>
-      <c r="M46" s="567"/>
+      <c r="B46" s="520"/>
+      <c r="C46" s="520"/>
+      <c r="D46" s="520"/>
+      <c r="E46" s="520"/>
+      <c r="F46" s="520"/>
+      <c r="G46" s="520"/>
+      <c r="H46" s="520"/>
+      <c r="I46" s="520"/>
+      <c r="J46" s="520"/>
+      <c r="K46" s="521"/>
+      <c r="L46" s="521"/>
+      <c r="M46" s="522"/>
     </row>
     <row r="47" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="320" t="s">
+      <c r="A47" s="487" t="s">
         <v>392</v>
       </c>
-      <c r="B47" s="321"/>
-      <c r="C47" s="322"/>
-      <c r="D47" s="512"/>
-      <c r="E47" s="513"/>
-      <c r="F47" s="513"/>
-      <c r="G47" s="513"/>
-      <c r="H47" s="514"/>
+      <c r="B47" s="488"/>
+      <c r="C47" s="489"/>
+      <c r="D47" s="544"/>
+      <c r="E47" s="545"/>
+      <c r="F47" s="545"/>
+      <c r="G47" s="545"/>
+      <c r="H47" s="546"/>
       <c r="I47" s="295" t="s">
         <v>393</v>
       </c>
@@ -16646,21 +16646,21 @@
       <c r="N47" s="298"/>
     </row>
     <row r="48" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="511" t="s">
+      <c r="A48" s="543" t="s">
         <v>398</v>
       </c>
-      <c r="B48" s="511"/>
-      <c r="C48" s="511"/>
-      <c r="D48" s="511"/>
-      <c r="E48" s="511"/>
-      <c r="F48" s="511"/>
-      <c r="G48" s="511"/>
-      <c r="H48" s="511"/>
-      <c r="I48" s="511"/>
-      <c r="J48" s="511"/>
-      <c r="K48" s="511"/>
-      <c r="L48" s="511"/>
-      <c r="M48" s="511"/>
+      <c r="B48" s="543"/>
+      <c r="C48" s="543"/>
+      <c r="D48" s="543"/>
+      <c r="E48" s="543"/>
+      <c r="F48" s="543"/>
+      <c r="G48" s="543"/>
+      <c r="H48" s="543"/>
+      <c r="I48" s="543"/>
+      <c r="J48" s="543"/>
+      <c r="K48" s="543"/>
+      <c r="L48" s="543"/>
+      <c r="M48" s="543"/>
       <c r="N48" s="302"/>
     </row>
   </sheetData>
@@ -16674,6 +16674,108 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="126">
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:K4"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D15:F17"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G15:I17"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D37:F37"/>
@@ -16698,108 +16800,6 @@
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G15:I17"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:K4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D15:F17"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -16816,7 +16816,7 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -16838,280 +16838,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="602"/>
-      <c r="B1" s="603"/>
-      <c r="C1" s="603"/>
-      <c r="D1" s="603"/>
-      <c r="E1" s="603"/>
-      <c r="F1" s="603"/>
-      <c r="G1" s="603"/>
-      <c r="H1" s="603"/>
-      <c r="I1" s="603"/>
-      <c r="J1" s="603"/>
-      <c r="K1" s="604"/>
+      <c r="A1" s="590"/>
+      <c r="B1" s="591"/>
+      <c r="C1" s="591"/>
+      <c r="D1" s="591"/>
+      <c r="E1" s="591"/>
+      <c r="F1" s="591"/>
+      <c r="G1" s="591"/>
+      <c r="H1" s="591"/>
+      <c r="I1" s="591"/>
+      <c r="J1" s="591"/>
+      <c r="K1" s="592"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="627" t="s">
+      <c r="A2" s="620" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="628"/>
-      <c r="C2" s="628"/>
-      <c r="D2" s="628"/>
-      <c r="E2" s="628"/>
-      <c r="F2" s="628"/>
-      <c r="G2" s="628"/>
-      <c r="H2" s="628"/>
-      <c r="I2" s="628"/>
-      <c r="J2" s="628"/>
-      <c r="K2" s="629"/>
+      <c r="B2" s="621"/>
+      <c r="C2" s="621"/>
+      <c r="D2" s="621"/>
+      <c r="E2" s="621"/>
+      <c r="F2" s="621"/>
+      <c r="G2" s="621"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="621"/>
+      <c r="J2" s="621"/>
+      <c r="K2" s="622"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="610" t="s">
+      <c r="A3" s="601" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="612" t="s">
+      <c r="B3" s="602" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="612"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="518" t="s">
+      <c r="C3" s="602"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="550" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="519"/>
-      <c r="G3" s="586" t="s">
+      <c r="F3" s="551"/>
+      <c r="G3" s="637" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="522" t="s">
+      <c r="H3" s="552" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="619"/>
-      <c r="J3" s="619"/>
-      <c r="K3" s="620"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="612"/>
+      <c r="K3" s="613"/>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="611"/>
-      <c r="B4" s="614"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
-      <c r="E4" s="520"/>
-      <c r="F4" s="521"/>
-      <c r="G4" s="537"/>
-      <c r="H4" s="621"/>
-      <c r="I4" s="622"/>
-      <c r="J4" s="622"/>
-      <c r="K4" s="623"/>
+      <c r="A4" s="589"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
+      <c r="E4" s="526"/>
+      <c r="F4" s="527"/>
+      <c r="G4" s="562"/>
+      <c r="H4" s="614"/>
+      <c r="I4" s="615"/>
+      <c r="J4" s="615"/>
+      <c r="K4" s="616"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
-      <c r="B5" s="581"/>
-      <c r="C5" s="581"/>
-      <c r="D5" s="582"/>
+      <c r="B5" s="627"/>
+      <c r="C5" s="627"/>
+      <c r="D5" s="628"/>
       <c r="E5" s="32" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="538"/>
-      <c r="H5" s="624"/>
-      <c r="I5" s="625"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="626"/>
+      <c r="G5" s="563"/>
+      <c r="H5" s="617"/>
+      <c r="I5" s="618"/>
+      <c r="J5" s="618"/>
+      <c r="K5" s="619"/>
     </row>
     <row r="6" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="583"/>
-      <c r="B6" s="584"/>
-      <c r="C6" s="584"/>
-      <c r="D6" s="585"/>
+      <c r="A6" s="609"/>
+      <c r="B6" s="610"/>
+      <c r="C6" s="610"/>
+      <c r="D6" s="611"/>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="588"/>
-      <c r="J6" s="588"/>
-      <c r="K6" s="589"/>
+      <c r="H6" s="598"/>
+      <c r="I6" s="599"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
     </row>
     <row r="7" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="583"/>
-      <c r="B7" s="584"/>
-      <c r="C7" s="584"/>
-      <c r="D7" s="585"/>
+      <c r="A7" s="609"/>
+      <c r="B7" s="610"/>
+      <c r="C7" s="610"/>
+      <c r="D7" s="611"/>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="587"/>
-      <c r="I7" s="588"/>
-      <c r="J7" s="588"/>
-      <c r="K7" s="589"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="599"/>
+      <c r="J7" s="599"/>
+      <c r="K7" s="600"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="583"/>
-      <c r="B8" s="584"/>
-      <c r="C8" s="584"/>
-      <c r="D8" s="585"/>
+      <c r="A8" s="609"/>
+      <c r="B8" s="610"/>
+      <c r="C8" s="610"/>
+      <c r="D8" s="611"/>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="587"/>
-      <c r="I8" s="588"/>
-      <c r="J8" s="588"/>
-      <c r="K8" s="589"/>
+      <c r="H8" s="598"/>
+      <c r="I8" s="599"/>
+      <c r="J8" s="599"/>
+      <c r="K8" s="600"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="583"/>
-      <c r="B9" s="584"/>
-      <c r="C9" s="584"/>
-      <c r="D9" s="585"/>
+      <c r="A9" s="609"/>
+      <c r="B9" s="610"/>
+      <c r="C9" s="610"/>
+      <c r="D9" s="611"/>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="587"/>
-      <c r="I9" s="588"/>
-      <c r="J9" s="588"/>
-      <c r="K9" s="589"/>
+      <c r="H9" s="598"/>
+      <c r="I9" s="599"/>
+      <c r="J9" s="599"/>
+      <c r="K9" s="600"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="583"/>
-      <c r="B10" s="584"/>
-      <c r="C10" s="584"/>
-      <c r="D10" s="585"/>
+      <c r="A10" s="609"/>
+      <c r="B10" s="610"/>
+      <c r="C10" s="610"/>
+      <c r="D10" s="611"/>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="587"/>
-      <c r="I10" s="588"/>
-      <c r="J10" s="588"/>
-      <c r="K10" s="589"/>
+      <c r="H10" s="598"/>
+      <c r="I10" s="599"/>
+      <c r="J10" s="599"/>
+      <c r="K10" s="600"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="583"/>
-      <c r="B11" s="584"/>
-      <c r="C11" s="584"/>
-      <c r="D11" s="585"/>
+      <c r="A11" s="609"/>
+      <c r="B11" s="610"/>
+      <c r="C11" s="610"/>
+      <c r="D11" s="611"/>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="587"/>
-      <c r="I11" s="588"/>
-      <c r="J11" s="588"/>
-      <c r="K11" s="589"/>
+      <c r="H11" s="598"/>
+      <c r="I11" s="599"/>
+      <c r="J11" s="599"/>
+      <c r="K11" s="600"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="616"/>
-      <c r="B12" s="617"/>
-      <c r="C12" s="617"/>
-      <c r="D12" s="618"/>
+      <c r="A12" s="606"/>
+      <c r="B12" s="607"/>
+      <c r="C12" s="607"/>
+      <c r="D12" s="608"/>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="43"/>
-      <c r="H12" s="634"/>
-      <c r="I12" s="635"/>
-      <c r="J12" s="635"/>
-      <c r="K12" s="636"/>
+      <c r="H12" s="568"/>
+      <c r="I12" s="569"/>
+      <c r="J12" s="569"/>
+      <c r="K12" s="570"/>
     </row>
     <row r="13" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="553" t="s">
+      <c r="A13" s="528" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="554"/>
-      <c r="C13" s="554"/>
-      <c r="D13" s="554"/>
-      <c r="E13" s="554"/>
-      <c r="F13" s="554"/>
-      <c r="G13" s="554"/>
-      <c r="H13" s="554"/>
-      <c r="I13" s="554"/>
-      <c r="J13" s="554"/>
-      <c r="K13" s="555"/>
+      <c r="B13" s="529"/>
+      <c r="C13" s="529"/>
+      <c r="D13" s="529"/>
+      <c r="E13" s="529"/>
+      <c r="F13" s="529"/>
+      <c r="G13" s="529"/>
+      <c r="H13" s="529"/>
+      <c r="I13" s="529"/>
+      <c r="J13" s="529"/>
+      <c r="K13" s="530"/>
     </row>
     <row r="14" spans="1:11" s="158" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="637" t="s">
+      <c r="A14" s="571" t="s">
         <v>342</v>
       </c>
-      <c r="B14" s="638"/>
-      <c r="C14" s="638"/>
-      <c r="D14" s="638"/>
-      <c r="E14" s="638"/>
-      <c r="F14" s="638"/>
-      <c r="G14" s="638"/>
-      <c r="H14" s="638"/>
-      <c r="I14" s="638"/>
-      <c r="J14" s="638"/>
-      <c r="K14" s="639"/>
+      <c r="B14" s="572"/>
+      <c r="C14" s="572"/>
+      <c r="D14" s="572"/>
+      <c r="E14" s="572"/>
+      <c r="F14" s="572"/>
+      <c r="G14" s="572"/>
+      <c r="H14" s="572"/>
+      <c r="I14" s="572"/>
+      <c r="J14" s="572"/>
+      <c r="K14" s="573"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="611" t="s">
+      <c r="A15" s="589" t="s">
         <v>362</v>
       </c>
-      <c r="B15" s="542" t="s">
+      <c r="B15" s="524" t="s">
         <v>364</v>
       </c>
-      <c r="C15" s="605"/>
-      <c r="D15" s="606"/>
-      <c r="E15" s="542" t="s">
+      <c r="C15" s="593"/>
+      <c r="D15" s="594"/>
+      <c r="E15" s="524" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="543"/>
-      <c r="G15" s="537" t="s">
+      <c r="F15" s="525"/>
+      <c r="G15" s="562" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="547" t="s">
+      <c r="H15" s="541" t="s">
         <v>339</v>
       </c>
-      <c r="I15" s="541" t="s">
+      <c r="I15" s="537" t="s">
         <v>360</v>
       </c>
-      <c r="J15" s="605"/>
-      <c r="K15" s="630"/>
+      <c r="J15" s="593"/>
+      <c r="K15" s="623"/>
     </row>
     <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="611"/>
-      <c r="B16" s="607"/>
-      <c r="C16" s="607"/>
-      <c r="D16" s="606"/>
-      <c r="E16" s="520"/>
-      <c r="F16" s="521"/>
-      <c r="G16" s="537"/>
-      <c r="H16" s="547"/>
-      <c r="I16" s="631"/>
-      <c r="J16" s="607"/>
-      <c r="K16" s="630"/>
+      <c r="A16" s="589"/>
+      <c r="B16" s="595"/>
+      <c r="C16" s="595"/>
+      <c r="D16" s="594"/>
+      <c r="E16" s="526"/>
+      <c r="F16" s="527"/>
+      <c r="G16" s="562"/>
+      <c r="H16" s="541"/>
+      <c r="I16" s="624"/>
+      <c r="J16" s="595"/>
+      <c r="K16" s="623"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
-      <c r="B17" s="608"/>
-      <c r="C17" s="608"/>
-      <c r="D17" s="609"/>
+      <c r="B17" s="596"/>
+      <c r="C17" s="596"/>
+      <c r="D17" s="597"/>
       <c r="E17" s="32" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="538"/>
-      <c r="H17" s="548"/>
-      <c r="I17" s="632"/>
-      <c r="J17" s="608"/>
-      <c r="K17" s="633"/>
+      <c r="G17" s="563"/>
+      <c r="H17" s="542"/>
+      <c r="I17" s="625"/>
+      <c r="J17" s="596"/>
+      <c r="K17" s="626"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="590"/>
-      <c r="B18" s="591"/>
-      <c r="C18" s="591"/>
-      <c r="D18" s="592"/>
+      <c r="A18" s="580"/>
+      <c r="B18" s="581"/>
+      <c r="C18" s="581"/>
+      <c r="D18" s="582"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
       <c r="G18" s="35"/>
       <c r="H18" s="34"/>
-      <c r="I18" s="596"/>
-      <c r="J18" s="597"/>
-      <c r="K18" s="598"/>
+      <c r="I18" s="577"/>
+      <c r="J18" s="578"/>
+      <c r="K18" s="579"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="593"/>
-      <c r="B19" s="594"/>
-      <c r="C19" s="594"/>
-      <c r="D19" s="595"/>
+      <c r="A19" s="574"/>
+      <c r="B19" s="575"/>
+      <c r="C19" s="575"/>
+      <c r="D19" s="576"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="35"/>
@@ -17121,10 +17121,10 @@
       <c r="K19" s="38"/>
     </row>
     <row r="20" spans="1:11" s="244" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="593"/>
-      <c r="B20" s="594"/>
-      <c r="C20" s="594"/>
-      <c r="D20" s="595"/>
+      <c r="A20" s="574"/>
+      <c r="B20" s="575"/>
+      <c r="C20" s="575"/>
+      <c r="D20" s="576"/>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="35"/>
@@ -17134,10 +17134,10 @@
       <c r="K20" s="243"/>
     </row>
     <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="593"/>
-      <c r="B21" s="594"/>
-      <c r="C21" s="594"/>
-      <c r="D21" s="595"/>
+      <c r="A21" s="574"/>
+      <c r="B21" s="575"/>
+      <c r="C21" s="575"/>
+      <c r="D21" s="576"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
       <c r="G21" s="35"/>
@@ -17147,10 +17147,10 @@
       <c r="K21" s="243"/>
     </row>
     <row r="22" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="593"/>
-      <c r="B22" s="594"/>
-      <c r="C22" s="594"/>
-      <c r="D22" s="595"/>
+      <c r="A22" s="574"/>
+      <c r="B22" s="575"/>
+      <c r="C22" s="575"/>
+      <c r="D22" s="576"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
       <c r="G22" s="35"/>
@@ -17160,10 +17160,10 @@
       <c r="K22" s="243"/>
     </row>
     <row r="23" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="593"/>
-      <c r="B23" s="594"/>
-      <c r="C23" s="594"/>
-      <c r="D23" s="595"/>
+      <c r="A23" s="574"/>
+      <c r="B23" s="575"/>
+      <c r="C23" s="575"/>
+      <c r="D23" s="576"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
       <c r="G23" s="35"/>
@@ -17173,10 +17173,10 @@
       <c r="K23" s="243"/>
     </row>
     <row r="24" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="593"/>
-      <c r="B24" s="594"/>
-      <c r="C24" s="594"/>
-      <c r="D24" s="595"/>
+      <c r="A24" s="574"/>
+      <c r="B24" s="575"/>
+      <c r="C24" s="575"/>
+      <c r="D24" s="576"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
       <c r="G24" s="35"/>
@@ -17186,10 +17186,10 @@
       <c r="K24" s="243"/>
     </row>
     <row r="25" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="593"/>
-      <c r="B25" s="594"/>
-      <c r="C25" s="594"/>
-      <c r="D25" s="595"/>
+      <c r="A25" s="574"/>
+      <c r="B25" s="575"/>
+      <c r="C25" s="575"/>
+      <c r="D25" s="576"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
       <c r="G25" s="35"/>
@@ -17199,43 +17199,43 @@
       <c r="K25" s="243"/>
     </row>
     <row r="26" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="590"/>
-      <c r="B26" s="591"/>
-      <c r="C26" s="591"/>
-      <c r="D26" s="592"/>
+      <c r="A26" s="580"/>
+      <c r="B26" s="581"/>
+      <c r="C26" s="581"/>
+      <c r="D26" s="582"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
       <c r="G26" s="35"/>
       <c r="H26" s="34"/>
-      <c r="I26" s="596"/>
-      <c r="J26" s="597"/>
-      <c r="K26" s="598"/>
+      <c r="I26" s="577"/>
+      <c r="J26" s="578"/>
+      <c r="K26" s="579"/>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="590"/>
-      <c r="B27" s="591"/>
-      <c r="C27" s="591"/>
-      <c r="D27" s="592"/>
+      <c r="A27" s="580"/>
+      <c r="B27" s="581"/>
+      <c r="C27" s="581"/>
+      <c r="D27" s="582"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
       <c r="G27" s="35"/>
       <c r="H27" s="34"/>
-      <c r="I27" s="596"/>
-      <c r="J27" s="597"/>
-      <c r="K27" s="598"/>
+      <c r="I27" s="577"/>
+      <c r="J27" s="578"/>
+      <c r="K27" s="579"/>
     </row>
     <row r="28" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="590"/>
-      <c r="B28" s="591"/>
-      <c r="C28" s="591"/>
-      <c r="D28" s="592"/>
+      <c r="A28" s="580"/>
+      <c r="B28" s="581"/>
+      <c r="C28" s="581"/>
+      <c r="D28" s="582"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
       <c r="G28" s="35"/>
       <c r="H28" s="34"/>
-      <c r="I28" s="596"/>
-      <c r="J28" s="597"/>
-      <c r="K28" s="598"/>
+      <c r="I28" s="577"/>
+      <c r="J28" s="578"/>
+      <c r="K28" s="579"/>
     </row>
     <row r="29" spans="1:11" s="231" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="228"/>
@@ -17316,86 +17316,86 @@
       <c r="K34" s="227"/>
     </row>
     <row r="35" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="590"/>
-      <c r="B35" s="591"/>
-      <c r="C35" s="591"/>
-      <c r="D35" s="592"/>
+      <c r="A35" s="580"/>
+      <c r="B35" s="581"/>
+      <c r="C35" s="581"/>
+      <c r="D35" s="582"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="35"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="596"/>
-      <c r="J35" s="597"/>
-      <c r="K35" s="598"/>
+      <c r="I35" s="577"/>
+      <c r="J35" s="578"/>
+      <c r="K35" s="579"/>
     </row>
     <row r="36" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="590"/>
-      <c r="B36" s="591"/>
-      <c r="C36" s="591"/>
-      <c r="D36" s="592"/>
+      <c r="A36" s="580"/>
+      <c r="B36" s="581"/>
+      <c r="C36" s="581"/>
+      <c r="D36" s="582"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="35"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="596"/>
-      <c r="J36" s="597"/>
-      <c r="K36" s="598"/>
+      <c r="I36" s="577"/>
+      <c r="J36" s="578"/>
+      <c r="K36" s="579"/>
     </row>
     <row r="37" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="590"/>
-      <c r="B37" s="591"/>
-      <c r="C37" s="591"/>
-      <c r="D37" s="592"/>
+      <c r="A37" s="580"/>
+      <c r="B37" s="581"/>
+      <c r="C37" s="581"/>
+      <c r="D37" s="582"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="35"/>
       <c r="H37" s="34"/>
-      <c r="I37" s="596"/>
-      <c r="J37" s="597"/>
-      <c r="K37" s="598"/>
+      <c r="I37" s="577"/>
+      <c r="J37" s="578"/>
+      <c r="K37" s="579"/>
     </row>
     <row r="38" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="640"/>
-      <c r="B38" s="641"/>
-      <c r="C38" s="641"/>
-      <c r="D38" s="642"/>
+      <c r="A38" s="583"/>
+      <c r="B38" s="584"/>
+      <c r="C38" s="584"/>
+      <c r="D38" s="585"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="39"/>
       <c r="H38" s="40"/>
-      <c r="I38" s="643"/>
-      <c r="J38" s="644"/>
-      <c r="K38" s="645"/>
+      <c r="I38" s="586"/>
+      <c r="J38" s="587"/>
+      <c r="K38" s="588"/>
     </row>
     <row r="39" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="323" t="s">
+      <c r="A39" s="490" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="324"/>
-      <c r="C39" s="324"/>
-      <c r="D39" s="324"/>
-      <c r="E39" s="324"/>
-      <c r="F39" s="324"/>
-      <c r="G39" s="324"/>
-      <c r="H39" s="324"/>
-      <c r="I39" s="324"/>
-      <c r="J39" s="324"/>
-      <c r="K39" s="325"/>
+      <c r="B39" s="491"/>
+      <c r="C39" s="491"/>
+      <c r="D39" s="491"/>
+      <c r="E39" s="491"/>
+      <c r="F39" s="491"/>
+      <c r="G39" s="491"/>
+      <c r="H39" s="491"/>
+      <c r="I39" s="491"/>
+      <c r="J39" s="491"/>
+      <c r="K39" s="492"/>
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="599" t="s">
+      <c r="A40" s="634" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="600"/>
-      <c r="C40" s="600"/>
-      <c r="D40" s="600"/>
-      <c r="E40" s="600"/>
-      <c r="F40" s="600"/>
-      <c r="G40" s="600"/>
-      <c r="H40" s="600"/>
-      <c r="I40" s="600"/>
-      <c r="J40" s="600"/>
-      <c r="K40" s="601"/>
+      <c r="B40" s="635"/>
+      <c r="C40" s="635"/>
+      <c r="D40" s="635"/>
+      <c r="E40" s="635"/>
+      <c r="F40" s="635"/>
+      <c r="G40" s="635"/>
+      <c r="H40" s="635"/>
+      <c r="I40" s="635"/>
+      <c r="J40" s="635"/>
+      <c r="K40" s="636"/>
     </row>
     <row r="41" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="156" t="s">
@@ -17407,143 +17407,143 @@
       <c r="C41" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="578" t="s">
+      <c r="D41" s="638" t="s">
         <v>365</v>
       </c>
-      <c r="E41" s="578"/>
-      <c r="F41" s="578"/>
-      <c r="G41" s="578"/>
-      <c r="H41" s="579"/>
+      <c r="E41" s="638"/>
+      <c r="F41" s="638"/>
+      <c r="G41" s="638"/>
+      <c r="H41" s="639"/>
       <c r="I41" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="578" t="s">
+      <c r="J41" s="638" t="s">
         <v>86</v>
       </c>
-      <c r="K41" s="580"/>
+      <c r="K41" s="643"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="570"/>
-      <c r="B42" s="571"/>
-      <c r="C42" s="575"/>
-      <c r="D42" s="576"/>
-      <c r="E42" s="576"/>
-      <c r="F42" s="576"/>
-      <c r="G42" s="576"/>
-      <c r="H42" s="577"/>
-      <c r="I42" s="572"/>
-      <c r="J42" s="573"/>
-      <c r="K42" s="574"/>
+      <c r="A42" s="629"/>
+      <c r="B42" s="630"/>
+      <c r="C42" s="631"/>
+      <c r="D42" s="632"/>
+      <c r="E42" s="632"/>
+      <c r="F42" s="632"/>
+      <c r="G42" s="632"/>
+      <c r="H42" s="633"/>
+      <c r="I42" s="640"/>
+      <c r="J42" s="641"/>
+      <c r="K42" s="642"/>
     </row>
     <row r="43" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="570"/>
-      <c r="B43" s="571"/>
-      <c r="C43" s="575"/>
-      <c r="D43" s="576"/>
-      <c r="E43" s="576"/>
-      <c r="F43" s="576"/>
-      <c r="G43" s="576"/>
-      <c r="H43" s="577"/>
-      <c r="I43" s="572"/>
-      <c r="J43" s="573"/>
-      <c r="K43" s="574"/>
+      <c r="A43" s="629"/>
+      <c r="B43" s="630"/>
+      <c r="C43" s="631"/>
+      <c r="D43" s="632"/>
+      <c r="E43" s="632"/>
+      <c r="F43" s="632"/>
+      <c r="G43" s="632"/>
+      <c r="H43" s="633"/>
+      <c r="I43" s="640"/>
+      <c r="J43" s="641"/>
+      <c r="K43" s="642"/>
     </row>
     <row r="44" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="570"/>
-      <c r="B44" s="571"/>
-      <c r="C44" s="575"/>
-      <c r="D44" s="576"/>
-      <c r="E44" s="576"/>
-      <c r="F44" s="576"/>
-      <c r="G44" s="576"/>
-      <c r="H44" s="577"/>
-      <c r="I44" s="572"/>
-      <c r="J44" s="573"/>
-      <c r="K44" s="574"/>
+      <c r="A44" s="629"/>
+      <c r="B44" s="630"/>
+      <c r="C44" s="631"/>
+      <c r="D44" s="632"/>
+      <c r="E44" s="632"/>
+      <c r="F44" s="632"/>
+      <c r="G44" s="632"/>
+      <c r="H44" s="633"/>
+      <c r="I44" s="640"/>
+      <c r="J44" s="641"/>
+      <c r="K44" s="642"/>
     </row>
     <row r="45" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="570"/>
-      <c r="B45" s="571"/>
-      <c r="C45" s="575"/>
-      <c r="D45" s="576"/>
-      <c r="E45" s="576"/>
-      <c r="F45" s="576"/>
-      <c r="G45" s="576"/>
-      <c r="H45" s="577"/>
-      <c r="I45" s="572"/>
-      <c r="J45" s="573"/>
-      <c r="K45" s="574"/>
+      <c r="A45" s="629"/>
+      <c r="B45" s="630"/>
+      <c r="C45" s="631"/>
+      <c r="D45" s="632"/>
+      <c r="E45" s="632"/>
+      <c r="F45" s="632"/>
+      <c r="G45" s="632"/>
+      <c r="H45" s="633"/>
+      <c r="I45" s="640"/>
+      <c r="J45" s="641"/>
+      <c r="K45" s="642"/>
     </row>
     <row r="46" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="570"/>
-      <c r="B46" s="571"/>
-      <c r="C46" s="575"/>
-      <c r="D46" s="576"/>
-      <c r="E46" s="576"/>
-      <c r="F46" s="576"/>
-      <c r="G46" s="576"/>
-      <c r="H46" s="577"/>
-      <c r="I46" s="572"/>
-      <c r="J46" s="573"/>
-      <c r="K46" s="574"/>
+      <c r="A46" s="629"/>
+      <c r="B46" s="630"/>
+      <c r="C46" s="631"/>
+      <c r="D46" s="632"/>
+      <c r="E46" s="632"/>
+      <c r="F46" s="632"/>
+      <c r="G46" s="632"/>
+      <c r="H46" s="633"/>
+      <c r="I46" s="640"/>
+      <c r="J46" s="641"/>
+      <c r="K46" s="642"/>
     </row>
     <row r="47" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="570"/>
-      <c r="B47" s="571"/>
-      <c r="C47" s="575"/>
-      <c r="D47" s="576"/>
-      <c r="E47" s="576"/>
-      <c r="F47" s="576"/>
-      <c r="G47" s="576"/>
-      <c r="H47" s="577"/>
-      <c r="I47" s="572"/>
-      <c r="J47" s="573"/>
-      <c r="K47" s="574"/>
+      <c r="A47" s="629"/>
+      <c r="B47" s="630"/>
+      <c r="C47" s="631"/>
+      <c r="D47" s="632"/>
+      <c r="E47" s="632"/>
+      <c r="F47" s="632"/>
+      <c r="G47" s="632"/>
+      <c r="H47" s="633"/>
+      <c r="I47" s="640"/>
+      <c r="J47" s="641"/>
+      <c r="K47" s="642"/>
     </row>
     <row r="48" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="570"/>
-      <c r="B48" s="571"/>
-      <c r="C48" s="575"/>
-      <c r="D48" s="576"/>
-      <c r="E48" s="576"/>
-      <c r="F48" s="576"/>
-      <c r="G48" s="576"/>
-      <c r="H48" s="577"/>
-      <c r="I48" s="572"/>
-      <c r="J48" s="573"/>
-      <c r="K48" s="574"/>
+      <c r="A48" s="629"/>
+      <c r="B48" s="630"/>
+      <c r="C48" s="631"/>
+      <c r="D48" s="632"/>
+      <c r="E48" s="632"/>
+      <c r="F48" s="632"/>
+      <c r="G48" s="632"/>
+      <c r="H48" s="633"/>
+      <c r="I48" s="640"/>
+      <c r="J48" s="641"/>
+      <c r="K48" s="642"/>
     </row>
     <row r="49" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="323" t="s">
+      <c r="A49" s="490" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="324"/>
-      <c r="C49" s="324"/>
-      <c r="D49" s="324"/>
-      <c r="E49" s="324"/>
-      <c r="F49" s="324"/>
-      <c r="G49" s="324"/>
-      <c r="H49" s="324"/>
-      <c r="I49" s="324"/>
-      <c r="J49" s="324"/>
-      <c r="K49" s="555"/>
+      <c r="B49" s="491"/>
+      <c r="C49" s="491"/>
+      <c r="D49" s="491"/>
+      <c r="E49" s="491"/>
+      <c r="F49" s="491"/>
+      <c r="G49" s="491"/>
+      <c r="H49" s="491"/>
+      <c r="I49" s="491"/>
+      <c r="J49" s="491"/>
+      <c r="K49" s="530"/>
     </row>
     <row r="50" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="320" t="s">
+      <c r="A50" s="487" t="s">
         <v>392</v>
       </c>
-      <c r="B50" s="322"/>
-      <c r="C50" s="512"/>
-      <c r="D50" s="513"/>
-      <c r="E50" s="513"/>
-      <c r="F50" s="514"/>
-      <c r="G50" s="568" t="s">
+      <c r="B50" s="489"/>
+      <c r="C50" s="544"/>
+      <c r="D50" s="545"/>
+      <c r="E50" s="545"/>
+      <c r="F50" s="546"/>
+      <c r="G50" s="644" t="s">
         <v>393</v>
       </c>
-      <c r="H50" s="569"/>
-      <c r="I50" s="512"/>
-      <c r="J50" s="513"/>
-      <c r="K50" s="514"/>
+      <c r="H50" s="645"/>
+      <c r="I50" s="544"/>
+      <c r="J50" s="545"/>
+      <c r="K50" s="546"/>
       <c r="L50" s="299"/>
       <c r="M50" s="299"/>
     </row>
@@ -17564,6 +17564,73 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="83">
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B15:D17"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="H3:K5"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="I15:K17"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A39:K39"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="A14:K14"/>
@@ -17580,73 +17647,6 @@
     <mergeCell ref="I38:K38"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B15:D17"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="H3:K5"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="I15:K17"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="I47:K47"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -17685,35 +17685,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="763"/>
-      <c r="B1" s="764"/>
-      <c r="C1" s="764"/>
-      <c r="D1" s="764"/>
-      <c r="E1" s="764"/>
-      <c r="F1" s="764"/>
-      <c r="G1" s="764"/>
-      <c r="H1" s="764"/>
-      <c r="I1" s="764"/>
-      <c r="J1" s="764"/>
-      <c r="K1" s="764"/>
-      <c r="L1" s="764"/>
-      <c r="M1" s="765"/>
+      <c r="A1" s="653"/>
+      <c r="B1" s="654"/>
+      <c r="C1" s="654"/>
+      <c r="D1" s="654"/>
+      <c r="E1" s="654"/>
+      <c r="F1" s="654"/>
+      <c r="G1" s="654"/>
+      <c r="H1" s="654"/>
+      <c r="I1" s="654"/>
+      <c r="J1" s="654"/>
+      <c r="K1" s="654"/>
+      <c r="L1" s="654"/>
+      <c r="M1" s="655"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="740" t="s">
+      <c r="A2" s="678" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="741"/>
-      <c r="C2" s="768" t="s">
+      <c r="B2" s="679"/>
+      <c r="C2" s="658" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="768"/>
-      <c r="E2" s="768"/>
-      <c r="F2" s="769"/>
+      <c r="D2" s="658"/>
+      <c r="E2" s="658"/>
+      <c r="F2" s="659"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
-      <c r="I2" s="766"/>
-      <c r="J2" s="766"/>
+      <c r="I2" s="656"/>
+      <c r="J2" s="656"/>
       <c r="K2" s="45"/>
       <c r="L2" s="45"/>
       <c r="M2" s="46"/>
@@ -17721,16 +17721,16 @@
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="48"/>
-      <c r="C3" s="756" t="s">
+      <c r="C3" s="662" t="s">
         <v>343</v>
       </c>
-      <c r="D3" s="756"/>
-      <c r="E3" s="756"/>
-      <c r="F3" s="757"/>
+      <c r="D3" s="662"/>
+      <c r="E3" s="662"/>
+      <c r="F3" s="663"/>
       <c r="G3" s="49"/>
       <c r="H3" s="49"/>
-      <c r="I3" s="767"/>
-      <c r="J3" s="767"/>
+      <c r="I3" s="657"/>
+      <c r="J3" s="657"/>
       <c r="K3" s="50"/>
       <c r="L3" s="50"/>
       <c r="M3" s="51"/>
@@ -17738,12 +17738,12 @@
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="756" t="s">
+      <c r="C4" s="662" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="756"/>
-      <c r="E4" s="756"/>
-      <c r="F4" s="757"/>
+      <c r="D4" s="662"/>
+      <c r="E4" s="662"/>
+      <c r="F4" s="663"/>
       <c r="G4" s="209"/>
       <c r="H4" s="291"/>
       <c r="I4" s="209"/>
@@ -17755,33 +17755,33 @@
     <row r="5" spans="1:13" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="756"/>
-      <c r="D5" s="756"/>
-      <c r="E5" s="756"/>
-      <c r="F5" s="757"/>
-      <c r="G5" s="671"/>
-      <c r="H5" s="671"/>
-      <c r="I5" s="671"/>
-      <c r="J5" s="671"/>
-      <c r="K5" s="671"/>
-      <c r="L5" s="671"/>
+      <c r="C5" s="662"/>
+      <c r="D5" s="662"/>
+      <c r="E5" s="662"/>
+      <c r="F5" s="663"/>
+      <c r="G5" s="650"/>
+      <c r="H5" s="650"/>
+      <c r="I5" s="650"/>
+      <c r="J5" s="650"/>
+      <c r="K5" s="650"/>
+      <c r="L5" s="650"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="48"/>
-      <c r="C6" s="756" t="s">
+      <c r="C6" s="662" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="756"/>
-      <c r="E6" s="756"/>
-      <c r="F6" s="757"/>
+      <c r="D6" s="662"/>
+      <c r="E6" s="662"/>
+      <c r="F6" s="663"/>
       <c r="G6" s="167"/>
       <c r="H6" s="167"/>
-      <c r="I6" s="762"/>
-      <c r="J6" s="762"/>
-      <c r="K6" s="762"/>
-      <c r="L6" s="762"/>
+      <c r="I6" s="684"/>
+      <c r="J6" s="684"/>
+      <c r="K6" s="684"/>
+      <c r="L6" s="684"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" s="166" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
@@ -17802,12 +17802,12 @@
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="47"/>
       <c r="B8" s="48"/>
-      <c r="C8" s="756" t="s">
+      <c r="C8" s="662" t="s">
         <v>366</v>
       </c>
-      <c r="D8" s="756"/>
-      <c r="E8" s="756"/>
-      <c r="F8" s="757"/>
+      <c r="D8" s="662"/>
+      <c r="E8" s="662"/>
+      <c r="F8" s="663"/>
       <c r="G8" s="209"/>
       <c r="H8" s="291"/>
       <c r="I8" s="209"/>
@@ -17834,61 +17834,61 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
-      <c r="C10" s="756"/>
-      <c r="D10" s="756"/>
-      <c r="E10" s="756"/>
-      <c r="F10" s="757"/>
-      <c r="G10" s="671" t="s">
+      <c r="C10" s="662"/>
+      <c r="D10" s="662"/>
+      <c r="E10" s="662"/>
+      <c r="F10" s="663"/>
+      <c r="G10" s="650" t="s">
         <v>329</v>
       </c>
-      <c r="H10" s="671"/>
-      <c r="I10" s="671"/>
-      <c r="J10" s="671"/>
-      <c r="K10" s="671"/>
-      <c r="L10" s="671"/>
+      <c r="H10" s="650"/>
+      <c r="I10" s="650"/>
+      <c r="J10" s="650"/>
+      <c r="K10" s="650"/>
+      <c r="L10" s="650"/>
       <c r="M10" s="101"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="48"/>
-      <c r="C11" s="756"/>
-      <c r="D11" s="756"/>
-      <c r="E11" s="756"/>
-      <c r="F11" s="757"/>
+      <c r="C11" s="662"/>
+      <c r="D11" s="662"/>
+      <c r="E11" s="662"/>
+      <c r="F11" s="663"/>
       <c r="G11" s="168"/>
       <c r="H11" s="169"/>
-      <c r="I11" s="760"/>
-      <c r="J11" s="760"/>
-      <c r="K11" s="760"/>
-      <c r="L11" s="760"/>
+      <c r="I11" s="682"/>
+      <c r="J11" s="682"/>
+      <c r="K11" s="682"/>
+      <c r="L11" s="682"/>
       <c r="M11" s="101"/>
     </row>
     <row r="12" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="53"/>
       <c r="B12" s="54"/>
-      <c r="C12" s="758"/>
-      <c r="D12" s="758"/>
-      <c r="E12" s="758"/>
-      <c r="F12" s="759"/>
+      <c r="C12" s="680"/>
+      <c r="D12" s="680"/>
+      <c r="E12" s="680"/>
+      <c r="F12" s="681"/>
       <c r="G12" s="169"/>
       <c r="H12" s="169"/>
-      <c r="I12" s="761"/>
-      <c r="J12" s="761"/>
-      <c r="K12" s="761"/>
-      <c r="L12" s="761"/>
+      <c r="I12" s="683"/>
+      <c r="J12" s="683"/>
+      <c r="K12" s="683"/>
+      <c r="L12" s="683"/>
       <c r="M12" s="142"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="780" t="s">
+      <c r="A13" s="646" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="781"/>
-      <c r="C13" s="776" t="s">
+      <c r="B13" s="647"/>
+      <c r="C13" s="648" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="776"/>
-      <c r="E13" s="605"/>
-      <c r="F13" s="606"/>
+      <c r="D13" s="648"/>
+      <c r="E13" s="593"/>
+      <c r="F13" s="594"/>
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
@@ -17900,48 +17900,48 @@
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="70"/>
       <c r="B14" s="71"/>
-      <c r="C14" s="776"/>
-      <c r="D14" s="776"/>
-      <c r="E14" s="605"/>
-      <c r="F14" s="606"/>
-      <c r="G14" s="670" t="s">
+      <c r="C14" s="648"/>
+      <c r="D14" s="648"/>
+      <c r="E14" s="593"/>
+      <c r="F14" s="594"/>
+      <c r="G14" s="649" t="s">
         <v>329</v>
       </c>
-      <c r="H14" s="671"/>
-      <c r="I14" s="671"/>
-      <c r="J14" s="671"/>
-      <c r="K14" s="671"/>
-      <c r="L14" s="671"/>
+      <c r="H14" s="650"/>
+      <c r="I14" s="650"/>
+      <c r="J14" s="650"/>
+      <c r="K14" s="650"/>
+      <c r="L14" s="650"/>
       <c r="M14" s="141"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="70"/>
       <c r="B15" s="71"/>
-      <c r="C15" s="776"/>
-      <c r="D15" s="776"/>
-      <c r="E15" s="605"/>
-      <c r="F15" s="606"/>
+      <c r="C15" s="648"/>
+      <c r="D15" s="648"/>
+      <c r="E15" s="593"/>
+      <c r="F15" s="594"/>
       <c r="G15" s="49"/>
       <c r="H15" s="315"/>
-      <c r="I15" s="782"/>
-      <c r="J15" s="782"/>
-      <c r="K15" s="782"/>
-      <c r="L15" s="782"/>
+      <c r="I15" s="651"/>
+      <c r="J15" s="651"/>
+      <c r="K15" s="651"/>
+      <c r="L15" s="651"/>
       <c r="M15" s="141"/>
     </row>
     <row r="16" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
       <c r="B16" s="58"/>
-      <c r="C16" s="605"/>
-      <c r="D16" s="605"/>
-      <c r="E16" s="605"/>
-      <c r="F16" s="606"/>
+      <c r="C16" s="593"/>
+      <c r="D16" s="593"/>
+      <c r="E16" s="593"/>
+      <c r="F16" s="594"/>
       <c r="G16" s="138"/>
       <c r="H16" s="305"/>
-      <c r="I16" s="773"/>
-      <c r="J16" s="773"/>
-      <c r="K16" s="773"/>
-      <c r="L16" s="773"/>
+      <c r="I16" s="652"/>
+      <c r="J16" s="652"/>
+      <c r="K16" s="652"/>
+      <c r="L16" s="652"/>
       <c r="M16" s="139"/>
     </row>
     <row r="17" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17962,12 +17962,12 @@
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="59"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="673" t="s">
+      <c r="C18" s="777" t="s">
         <v>391</v>
       </c>
-      <c r="D18" s="673"/>
-      <c r="E18" s="674"/>
-      <c r="F18" s="675"/>
+      <c r="D18" s="777"/>
+      <c r="E18" s="778"/>
+      <c r="F18" s="779"/>
       <c r="G18" s="64"/>
       <c r="H18" s="64"/>
       <c r="I18" s="64"/>
@@ -17979,32 +17979,32 @@
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="59"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="673"/>
-      <c r="D19" s="673"/>
-      <c r="E19" s="674"/>
-      <c r="F19" s="675"/>
-      <c r="G19" s="670" t="s">
+      <c r="C19" s="777"/>
+      <c r="D19" s="777"/>
+      <c r="E19" s="778"/>
+      <c r="F19" s="779"/>
+      <c r="G19" s="649" t="s">
         <v>329</v>
       </c>
-      <c r="H19" s="671"/>
-      <c r="I19" s="671"/>
-      <c r="J19" s="671"/>
-      <c r="K19" s="671"/>
-      <c r="L19" s="671"/>
+      <c r="H19" s="650"/>
+      <c r="I19" s="650"/>
+      <c r="J19" s="650"/>
+      <c r="K19" s="650"/>
+      <c r="L19" s="650"/>
       <c r="M19" s="65"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="59"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="673"/>
-      <c r="D20" s="673"/>
-      <c r="E20" s="674"/>
-      <c r="F20" s="675"/>
+      <c r="C20" s="777"/>
+      <c r="D20" s="777"/>
+      <c r="E20" s="778"/>
+      <c r="F20" s="779"/>
       <c r="G20" s="64"/>
-      <c r="H20" s="646" t="s">
+      <c r="H20" s="755" t="s">
         <v>330</v>
       </c>
-      <c r="I20" s="646"/>
+      <c r="I20" s="755"/>
       <c r="J20" s="316"/>
       <c r="K20" s="317"/>
       <c r="L20" s="143"/>
@@ -18013,15 +18013,15 @@
     <row r="21" spans="1:13" s="211" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="59"/>
       <c r="B21" s="60"/>
-      <c r="C21" s="673"/>
-      <c r="D21" s="673"/>
-      <c r="E21" s="674"/>
-      <c r="F21" s="675"/>
-      <c r="G21" s="647" t="s">
+      <c r="C21" s="777"/>
+      <c r="D21" s="777"/>
+      <c r="E21" s="778"/>
+      <c r="F21" s="779"/>
+      <c r="G21" s="756" t="s">
         <v>332</v>
       </c>
-      <c r="H21" s="648"/>
-      <c r="I21" s="648"/>
+      <c r="H21" s="757"/>
+      <c r="I21" s="757"/>
       <c r="J21" s="316"/>
       <c r="K21" s="318"/>
       <c r="L21" s="143"/>
@@ -18030,31 +18030,31 @@
     <row r="22" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
       <c r="B22" s="67"/>
-      <c r="C22" s="676"/>
-      <c r="D22" s="676"/>
-      <c r="E22" s="676"/>
-      <c r="F22" s="677"/>
+      <c r="C22" s="780"/>
+      <c r="D22" s="780"/>
+      <c r="E22" s="780"/>
+      <c r="F22" s="781"/>
       <c r="G22" s="138" t="s">
         <v>331</v>
       </c>
       <c r="H22" s="305"/>
-      <c r="I22" s="678"/>
-      <c r="J22" s="678"/>
-      <c r="K22" s="678"/>
+      <c r="I22" s="782"/>
+      <c r="J22" s="782"/>
+      <c r="K22" s="782"/>
       <c r="L22" s="144"/>
       <c r="M22" s="139"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="666" t="s">
+      <c r="A23" s="685" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="667"/>
-      <c r="C23" s="680" t="s">
+      <c r="B23" s="686"/>
+      <c r="C23" s="674" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="680"/>
-      <c r="E23" s="680"/>
-      <c r="F23" s="681"/>
+      <c r="D23" s="674"/>
+      <c r="E23" s="674"/>
+      <c r="F23" s="675"/>
       <c r="G23" s="55"/>
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
@@ -18066,61 +18066,61 @@
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="57"/>
       <c r="B24" s="58"/>
-      <c r="C24" s="682"/>
-      <c r="D24" s="682"/>
-      <c r="E24" s="682"/>
-      <c r="F24" s="683"/>
-      <c r="G24" s="670" t="s">
+      <c r="C24" s="665"/>
+      <c r="D24" s="665"/>
+      <c r="E24" s="665"/>
+      <c r="F24" s="664"/>
+      <c r="G24" s="649" t="s">
         <v>329</v>
       </c>
-      <c r="H24" s="671"/>
-      <c r="I24" s="671"/>
-      <c r="J24" s="671"/>
-      <c r="K24" s="671"/>
-      <c r="L24" s="671"/>
+      <c r="H24" s="650"/>
+      <c r="I24" s="650"/>
+      <c r="J24" s="650"/>
+      <c r="K24" s="650"/>
+      <c r="L24" s="650"/>
       <c r="M24" s="137"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="57"/>
       <c r="B25" s="58"/>
-      <c r="C25" s="682"/>
-      <c r="D25" s="682"/>
-      <c r="E25" s="682"/>
-      <c r="F25" s="683"/>
+      <c r="C25" s="665"/>
+      <c r="D25" s="665"/>
+      <c r="E25" s="665"/>
+      <c r="F25" s="664"/>
       <c r="G25" s="136"/>
       <c r="H25" s="305"/>
-      <c r="I25" s="679"/>
-      <c r="J25" s="679"/>
-      <c r="K25" s="679"/>
-      <c r="L25" s="679"/>
+      <c r="I25" s="673"/>
+      <c r="J25" s="673"/>
+      <c r="K25" s="673"/>
+      <c r="L25" s="673"/>
       <c r="M25" s="137"/>
     </row>
     <row r="26" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="68"/>
       <c r="B26" s="69"/>
-      <c r="C26" s="684"/>
-      <c r="D26" s="684"/>
-      <c r="E26" s="684"/>
-      <c r="F26" s="685"/>
+      <c r="C26" s="676"/>
+      <c r="D26" s="676"/>
+      <c r="E26" s="676"/>
+      <c r="F26" s="677"/>
       <c r="G26" s="138"/>
       <c r="H26" s="305"/>
-      <c r="I26" s="773"/>
-      <c r="J26" s="773"/>
-      <c r="K26" s="773"/>
-      <c r="L26" s="773"/>
+      <c r="I26" s="652"/>
+      <c r="J26" s="652"/>
+      <c r="K26" s="652"/>
+      <c r="L26" s="652"/>
       <c r="M26" s="139"/>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="666" t="s">
+      <c r="A27" s="685" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="667"/>
-      <c r="C27" s="680" t="s">
+      <c r="B27" s="686"/>
+      <c r="C27" s="674" t="s">
         <v>359</v>
       </c>
-      <c r="D27" s="680"/>
-      <c r="E27" s="680"/>
-      <c r="F27" s="681"/>
+      <c r="D27" s="674"/>
+      <c r="E27" s="674"/>
+      <c r="F27" s="675"/>
       <c r="G27" s="55"/>
       <c r="H27" s="55"/>
       <c r="I27" s="55"/>
@@ -18132,42 +18132,42 @@
     <row r="28" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="57"/>
       <c r="B28" s="58"/>
-      <c r="C28" s="682"/>
-      <c r="D28" s="682"/>
-      <c r="E28" s="682"/>
-      <c r="F28" s="683"/>
-      <c r="G28" s="670" t="s">
+      <c r="C28" s="665"/>
+      <c r="D28" s="665"/>
+      <c r="E28" s="665"/>
+      <c r="F28" s="664"/>
+      <c r="G28" s="649" t="s">
         <v>329</v>
       </c>
-      <c r="H28" s="671"/>
-      <c r="I28" s="671"/>
-      <c r="J28" s="671"/>
-      <c r="K28" s="671"/>
-      <c r="L28" s="671"/>
+      <c r="H28" s="650"/>
+      <c r="I28" s="650"/>
+      <c r="J28" s="650"/>
+      <c r="K28" s="650"/>
+      <c r="L28" s="650"/>
       <c r="M28" s="210"/>
     </row>
     <row r="29" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="57"/>
       <c r="B29" s="58"/>
-      <c r="C29" s="682"/>
-      <c r="D29" s="682"/>
-      <c r="E29" s="682"/>
-      <c r="F29" s="683"/>
+      <c r="C29" s="665"/>
+      <c r="D29" s="665"/>
+      <c r="E29" s="665"/>
+      <c r="F29" s="664"/>
       <c r="G29" s="209"/>
       <c r="H29" s="293"/>
-      <c r="I29" s="679"/>
-      <c r="J29" s="679"/>
-      <c r="K29" s="679"/>
-      <c r="L29" s="679"/>
+      <c r="I29" s="673"/>
+      <c r="J29" s="673"/>
+      <c r="K29" s="673"/>
+      <c r="L29" s="673"/>
       <c r="M29" s="137"/>
     </row>
     <row r="30" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="68"/>
       <c r="B30" s="69"/>
-      <c r="C30" s="684"/>
-      <c r="D30" s="684"/>
-      <c r="E30" s="684"/>
-      <c r="F30" s="685"/>
+      <c r="C30" s="676"/>
+      <c r="D30" s="676"/>
+      <c r="E30" s="676"/>
+      <c r="F30" s="677"/>
       <c r="G30" s="161"/>
       <c r="H30" s="307"/>
       <c r="I30" s="212"/>
@@ -18177,16 +18177,16 @@
       <c r="M30" s="139"/>
     </row>
     <row r="31" spans="1:13" s="160" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="666" t="s">
+      <c r="A31" s="685" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="667"/>
-      <c r="C31" s="680" t="s">
+      <c r="B31" s="686"/>
+      <c r="C31" s="674" t="s">
         <v>355</v>
       </c>
-      <c r="D31" s="680"/>
-      <c r="E31" s="680"/>
-      <c r="F31" s="681"/>
+      <c r="D31" s="674"/>
+      <c r="E31" s="674"/>
+      <c r="F31" s="675"/>
       <c r="G31" s="55"/>
       <c r="H31" s="55"/>
       <c r="I31" s="55"/>
@@ -18198,18 +18198,18 @@
     <row r="32" spans="1:13" s="160" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="57"/>
       <c r="B32" s="58"/>
-      <c r="C32" s="682"/>
-      <c r="D32" s="682"/>
-      <c r="E32" s="682"/>
-      <c r="F32" s="683"/>
-      <c r="G32" s="718" t="s">
+      <c r="C32" s="665"/>
+      <c r="D32" s="665"/>
+      <c r="E32" s="665"/>
+      <c r="F32" s="664"/>
+      <c r="G32" s="722" t="s">
         <v>356</v>
       </c>
-      <c r="H32" s="719"/>
-      <c r="I32" s="719"/>
-      <c r="J32" s="719"/>
-      <c r="K32" s="717"/>
-      <c r="L32" s="717"/>
+      <c r="H32" s="723"/>
+      <c r="I32" s="723"/>
+      <c r="J32" s="723"/>
+      <c r="K32" s="687"/>
+      <c r="L32" s="687"/>
       <c r="M32" s="137"/>
     </row>
     <row r="33" spans="1:14" s="211" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18230,44 +18230,44 @@
     <row r="34" spans="1:14" s="160" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="57"/>
       <c r="B34" s="58"/>
-      <c r="C34" s="682" t="s">
+      <c r="C34" s="665" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="682"/>
-      <c r="E34" s="682"/>
-      <c r="F34" s="683"/>
+      <c r="D34" s="665"/>
+      <c r="E34" s="665"/>
+      <c r="F34" s="664"/>
       <c r="G34" s="136"/>
       <c r="H34" s="306"/>
-      <c r="I34" s="716"/>
-      <c r="J34" s="716"/>
-      <c r="K34" s="716"/>
-      <c r="L34" s="716"/>
+      <c r="I34" s="721"/>
+      <c r="J34" s="721"/>
+      <c r="K34" s="721"/>
+      <c r="L34" s="721"/>
       <c r="M34" s="137"/>
     </row>
     <row r="35" spans="1:14" s="211" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="57"/>
       <c r="B35" s="58"/>
-      <c r="C35" s="682"/>
-      <c r="D35" s="682"/>
-      <c r="E35" s="682"/>
-      <c r="F35" s="683"/>
-      <c r="G35" s="718" t="s">
+      <c r="C35" s="665"/>
+      <c r="D35" s="665"/>
+      <c r="E35" s="665"/>
+      <c r="F35" s="664"/>
+      <c r="G35" s="722" t="s">
         <v>356</v>
       </c>
-      <c r="H35" s="719"/>
-      <c r="I35" s="719"/>
-      <c r="J35" s="719"/>
-      <c r="K35" s="717"/>
-      <c r="L35" s="717"/>
+      <c r="H35" s="723"/>
+      <c r="I35" s="723"/>
+      <c r="J35" s="723"/>
+      <c r="K35" s="687"/>
+      <c r="L35" s="687"/>
       <c r="M35" s="137"/>
     </row>
     <row r="36" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="68"/>
       <c r="B36" s="69"/>
-      <c r="C36" s="684"/>
-      <c r="D36" s="684"/>
-      <c r="E36" s="684"/>
-      <c r="F36" s="685"/>
+      <c r="C36" s="676"/>
+      <c r="D36" s="676"/>
+      <c r="E36" s="676"/>
+      <c r="F36" s="677"/>
       <c r="G36" s="140"/>
       <c r="H36" s="79"/>
       <c r="I36" s="131"/>
@@ -18277,16 +18277,16 @@
       <c r="M36" s="139"/>
     </row>
     <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="666" t="s">
+      <c r="A37" s="685" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="667"/>
-      <c r="C37" s="774" t="s">
+      <c r="B37" s="686"/>
+      <c r="C37" s="668" t="s">
         <v>349</v>
       </c>
-      <c r="D37" s="774"/>
-      <c r="E37" s="774"/>
-      <c r="F37" s="775"/>
+      <c r="D37" s="668"/>
+      <c r="E37" s="668"/>
+      <c r="F37" s="669"/>
       <c r="G37" s="55"/>
       <c r="H37" s="55"/>
       <c r="I37" s="55"/>
@@ -18298,61 +18298,61 @@
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="57"/>
       <c r="B38" s="58"/>
-      <c r="C38" s="776"/>
-      <c r="D38" s="776"/>
-      <c r="E38" s="776"/>
-      <c r="F38" s="777"/>
-      <c r="G38" s="670" t="s">
+      <c r="C38" s="648"/>
+      <c r="D38" s="648"/>
+      <c r="E38" s="648"/>
+      <c r="F38" s="670"/>
+      <c r="G38" s="649" t="s">
         <v>340</v>
       </c>
-      <c r="H38" s="671"/>
-      <c r="I38" s="671"/>
-      <c r="J38" s="671"/>
-      <c r="K38" s="671"/>
-      <c r="L38" s="671"/>
-      <c r="M38" s="672"/>
+      <c r="H38" s="650"/>
+      <c r="I38" s="650"/>
+      <c r="J38" s="650"/>
+      <c r="K38" s="650"/>
+      <c r="L38" s="650"/>
+      <c r="M38" s="776"/>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="57"/>
       <c r="B39" s="58"/>
-      <c r="C39" s="776"/>
-      <c r="D39" s="776"/>
-      <c r="E39" s="776"/>
-      <c r="F39" s="777"/>
+      <c r="C39" s="648"/>
+      <c r="D39" s="648"/>
+      <c r="E39" s="648"/>
+      <c r="F39" s="670"/>
       <c r="G39" s="136"/>
       <c r="H39" s="305"/>
-      <c r="I39" s="679"/>
-      <c r="J39" s="679"/>
-      <c r="K39" s="679"/>
-      <c r="L39" s="679"/>
+      <c r="I39" s="673"/>
+      <c r="J39" s="673"/>
+      <c r="K39" s="673"/>
+      <c r="L39" s="673"/>
       <c r="M39" s="137"/>
     </row>
     <row r="40" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="68"/>
       <c r="B40" s="69"/>
-      <c r="C40" s="778"/>
-      <c r="D40" s="778"/>
-      <c r="E40" s="778"/>
-      <c r="F40" s="779"/>
+      <c r="C40" s="671"/>
+      <c r="D40" s="671"/>
+      <c r="E40" s="671"/>
+      <c r="F40" s="672"/>
       <c r="G40" s="138"/>
       <c r="H40" s="305"/>
-      <c r="I40" s="773"/>
-      <c r="J40" s="773"/>
-      <c r="K40" s="773"/>
-      <c r="L40" s="773"/>
+      <c r="I40" s="652"/>
+      <c r="J40" s="652"/>
+      <c r="K40" s="652"/>
+      <c r="L40" s="652"/>
       <c r="M40" s="139"/>
     </row>
     <row r="41" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="771" t="s">
+      <c r="A41" s="666" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="772"/>
-      <c r="C41" s="682" t="s">
+      <c r="B41" s="667"/>
+      <c r="C41" s="665" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="682"/>
-      <c r="E41" s="682"/>
-      <c r="F41" s="683"/>
+      <c r="D41" s="665"/>
+      <c r="E41" s="665"/>
+      <c r="F41" s="664"/>
       <c r="G41" s="55"/>
       <c r="H41" s="55"/>
       <c r="I41" s="74"/>
@@ -18364,10 +18364,10 @@
     <row r="42" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="72"/>
       <c r="B42" s="73"/>
-      <c r="C42" s="682"/>
-      <c r="D42" s="682"/>
-      <c r="E42" s="682"/>
-      <c r="F42" s="683"/>
+      <c r="C42" s="665"/>
+      <c r="D42" s="665"/>
+      <c r="E42" s="665"/>
+      <c r="F42" s="664"/>
       <c r="G42" s="77"/>
       <c r="H42" s="77"/>
       <c r="I42" s="77"/>
@@ -18382,12 +18382,12 @@
         <v>80</v>
       </c>
       <c r="B43" s="73"/>
-      <c r="C43" s="682" t="s">
+      <c r="C43" s="665" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="682"/>
-      <c r="E43" s="682"/>
-      <c r="F43" s="683"/>
+      <c r="D43" s="665"/>
+      <c r="E43" s="665"/>
+      <c r="F43" s="664"/>
       <c r="G43" s="209"/>
       <c r="H43" s="291"/>
       <c r="I43" s="209"/>
@@ -18400,10 +18400,10 @@
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="72"/>
       <c r="B44" s="73"/>
-      <c r="C44" s="682"/>
-      <c r="D44" s="682"/>
-      <c r="E44" s="682"/>
-      <c r="F44" s="683"/>
+      <c r="C44" s="665"/>
+      <c r="D44" s="665"/>
+      <c r="E44" s="665"/>
+      <c r="F44" s="664"/>
       <c r="G44" s="222" t="s">
         <v>327</v>
       </c>
@@ -18420,12 +18420,12 @@
         <v>81</v>
       </c>
       <c r="B45" s="73"/>
-      <c r="C45" s="683" t="s">
+      <c r="C45" s="664" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="683"/>
-      <c r="E45" s="683"/>
-      <c r="F45" s="683"/>
+      <c r="D45" s="664"/>
+      <c r="E45" s="664"/>
+      <c r="F45" s="664"/>
       <c r="G45" s="209"/>
       <c r="H45" s="291"/>
       <c r="I45" s="209"/>
@@ -18438,10 +18438,10 @@
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="72"/>
       <c r="B46" s="73"/>
-      <c r="C46" s="683"/>
-      <c r="D46" s="683"/>
-      <c r="E46" s="683"/>
-      <c r="F46" s="683"/>
+      <c r="C46" s="664"/>
+      <c r="D46" s="664"/>
+      <c r="E46" s="664"/>
+      <c r="F46" s="664"/>
       <c r="G46" s="223" t="s">
         <v>328</v>
       </c>
@@ -18458,10 +18458,10 @@
         <v>83</v>
       </c>
       <c r="B47" s="73"/>
-      <c r="C47" s="682" t="s">
+      <c r="C47" s="665" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="682"/>
+      <c r="D47" s="665"/>
       <c r="E47" s="128"/>
       <c r="F47" s="129"/>
       <c r="G47" s="209"/>
@@ -18474,12 +18474,12 @@
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="733"/>
-      <c r="B48" s="734"/>
-      <c r="C48" s="734"/>
-      <c r="D48" s="734"/>
-      <c r="E48" s="734"/>
-      <c r="F48" s="735"/>
+      <c r="A48" s="700"/>
+      <c r="B48" s="701"/>
+      <c r="C48" s="701"/>
+      <c r="D48" s="701"/>
+      <c r="E48" s="701"/>
+      <c r="F48" s="702"/>
       <c r="G48" s="224" t="s">
         <v>328</v>
       </c>
@@ -18492,12 +18492,12 @@
       <c r="N48" s="79"/>
     </row>
     <row r="49" spans="1:14" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="736"/>
-      <c r="B49" s="737"/>
-      <c r="C49" s="737"/>
-      <c r="D49" s="737"/>
-      <c r="E49" s="737"/>
-      <c r="F49" s="738"/>
+      <c r="A49" s="703"/>
+      <c r="B49" s="704"/>
+      <c r="C49" s="704"/>
+      <c r="D49" s="704"/>
+      <c r="E49" s="704"/>
+      <c r="F49" s="705"/>
       <c r="G49" s="130"/>
       <c r="H49" s="126"/>
       <c r="I49" s="126"/>
@@ -18508,10 +18508,10 @@
       <c r="N49" s="79"/>
     </row>
     <row r="50" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="668" t="s">
+      <c r="A50" s="774" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="669"/>
+      <c r="B50" s="775"/>
       <c r="C50" s="220" t="s">
         <v>383</v>
       </c>
@@ -18521,128 +18521,128 @@
       <c r="G50" s="220"/>
       <c r="H50" s="220"/>
       <c r="I50" s="221"/>
-      <c r="J50" s="720"/>
-      <c r="K50" s="721"/>
-      <c r="L50" s="721"/>
-      <c r="M50" s="722"/>
+      <c r="J50" s="688"/>
+      <c r="K50" s="689"/>
+      <c r="L50" s="689"/>
+      <c r="M50" s="690"/>
       <c r="N50" s="8"/>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="730" t="s">
+      <c r="A51" s="697" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="731"/>
-      <c r="C51" s="731"/>
-      <c r="D51" s="731"/>
-      <c r="E51" s="732"/>
+      <c r="B51" s="698"/>
+      <c r="C51" s="698"/>
+      <c r="D51" s="698"/>
+      <c r="E51" s="699"/>
       <c r="F51" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="739" t="s">
+      <c r="G51" s="706" t="s">
         <v>77</v>
       </c>
-      <c r="H51" s="578"/>
-      <c r="I51" s="580"/>
-      <c r="J51" s="723"/>
-      <c r="K51" s="724"/>
-      <c r="L51" s="724"/>
-      <c r="M51" s="725"/>
+      <c r="H51" s="638"/>
+      <c r="I51" s="643"/>
+      <c r="J51" s="691"/>
+      <c r="K51" s="692"/>
+      <c r="L51" s="692"/>
+      <c r="M51" s="693"/>
     </row>
     <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="749"/>
-      <c r="B52" s="750"/>
-      <c r="C52" s="752"/>
-      <c r="D52" s="752"/>
-      <c r="E52" s="753"/>
+      <c r="A52" s="714"/>
+      <c r="B52" s="715"/>
+      <c r="C52" s="717"/>
+      <c r="D52" s="717"/>
+      <c r="E52" s="718"/>
       <c r="F52" s="80"/>
-      <c r="G52" s="742"/>
-      <c r="H52" s="743"/>
-      <c r="I52" s="744"/>
-      <c r="J52" s="723"/>
-      <c r="K52" s="724"/>
-      <c r="L52" s="724"/>
-      <c r="M52" s="725"/>
+      <c r="G52" s="707"/>
+      <c r="H52" s="708"/>
+      <c r="I52" s="709"/>
+      <c r="J52" s="691"/>
+      <c r="K52" s="692"/>
+      <c r="L52" s="692"/>
+      <c r="M52" s="693"/>
     </row>
     <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="749"/>
-      <c r="B53" s="750"/>
-      <c r="C53" s="750"/>
-      <c r="D53" s="750"/>
-      <c r="E53" s="751"/>
+      <c r="A53" s="714"/>
+      <c r="B53" s="715"/>
+      <c r="C53" s="715"/>
+      <c r="D53" s="715"/>
+      <c r="E53" s="716"/>
       <c r="F53" s="80"/>
-      <c r="G53" s="742"/>
-      <c r="H53" s="743"/>
-      <c r="I53" s="744"/>
-      <c r="J53" s="723"/>
-      <c r="K53" s="724"/>
-      <c r="L53" s="724"/>
-      <c r="M53" s="725"/>
+      <c r="G53" s="707"/>
+      <c r="H53" s="708"/>
+      <c r="I53" s="709"/>
+      <c r="J53" s="691"/>
+      <c r="K53" s="692"/>
+      <c r="L53" s="692"/>
+      <c r="M53" s="693"/>
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="745"/>
-      <c r="B54" s="746"/>
-      <c r="C54" s="747"/>
-      <c r="D54" s="747"/>
-      <c r="E54" s="748"/>
+      <c r="A54" s="710"/>
+      <c r="B54" s="711"/>
+      <c r="C54" s="712"/>
+      <c r="D54" s="712"/>
+      <c r="E54" s="713"/>
       <c r="F54" s="236"/>
-      <c r="G54" s="727"/>
-      <c r="H54" s="728"/>
-      <c r="I54" s="729"/>
-      <c r="J54" s="723"/>
-      <c r="K54" s="724"/>
-      <c r="L54" s="724"/>
-      <c r="M54" s="725"/>
+      <c r="G54" s="694"/>
+      <c r="H54" s="695"/>
+      <c r="I54" s="696"/>
+      <c r="J54" s="691"/>
+      <c r="K54" s="692"/>
+      <c r="L54" s="692"/>
+      <c r="M54" s="693"/>
     </row>
     <row r="55" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="740" t="s">
+      <c r="A55" s="678" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="741"/>
-      <c r="C55" s="754" t="s">
+      <c r="B55" s="679"/>
+      <c r="C55" s="719" t="s">
         <v>401</v>
       </c>
-      <c r="D55" s="754"/>
-      <c r="E55" s="754"/>
-      <c r="F55" s="754"/>
-      <c r="G55" s="754"/>
-      <c r="H55" s="754"/>
+      <c r="D55" s="719"/>
+      <c r="E55" s="719"/>
+      <c r="F55" s="719"/>
+      <c r="G55" s="719"/>
+      <c r="H55" s="719"/>
       <c r="I55" s="311"/>
-      <c r="J55" s="724"/>
-      <c r="K55" s="724"/>
-      <c r="L55" s="724"/>
-      <c r="M55" s="725"/>
+      <c r="J55" s="692"/>
+      <c r="K55" s="692"/>
+      <c r="L55" s="692"/>
+      <c r="M55" s="693"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="81"/>
       <c r="B56" s="82"/>
-      <c r="C56" s="755"/>
-      <c r="D56" s="755"/>
-      <c r="E56" s="755"/>
-      <c r="F56" s="755"/>
-      <c r="G56" s="755"/>
-      <c r="H56" s="755"/>
+      <c r="C56" s="720"/>
+      <c r="D56" s="720"/>
+      <c r="E56" s="720"/>
+      <c r="F56" s="720"/>
+      <c r="G56" s="720"/>
+      <c r="H56" s="720"/>
       <c r="I56" s="312"/>
       <c r="J56" s="235"/>
-      <c r="K56" s="726" t="s">
+      <c r="K56" s="660" t="s">
         <v>75</v>
       </c>
-      <c r="L56" s="726"/>
+      <c r="L56" s="660"/>
       <c r="M56" s="207"/>
     </row>
     <row r="57" spans="1:14" s="202" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="81"/>
       <c r="B57" s="82"/>
-      <c r="C57" s="755"/>
-      <c r="D57" s="755"/>
-      <c r="E57" s="755"/>
-      <c r="F57" s="755"/>
-      <c r="G57" s="755"/>
-      <c r="H57" s="755"/>
+      <c r="C57" s="720"/>
+      <c r="D57" s="720"/>
+      <c r="E57" s="720"/>
+      <c r="F57" s="720"/>
+      <c r="G57" s="720"/>
+      <c r="H57" s="720"/>
       <c r="I57" s="312"/>
-      <c r="J57" s="726"/>
-      <c r="K57" s="726"/>
-      <c r="L57" s="726"/>
-      <c r="M57" s="770"/>
+      <c r="J57" s="660"/>
+      <c r="K57" s="660"/>
+      <c r="L57" s="660"/>
+      <c r="M57" s="661"/>
     </row>
     <row r="58" spans="1:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="205"/>
@@ -18655,8 +18655,8 @@
       <c r="H58" s="313"/>
       <c r="I58" s="314"/>
       <c r="J58" s="209"/>
-      <c r="K58" s="706"/>
-      <c r="L58" s="707"/>
+      <c r="K58" s="745"/>
+      <c r="L58" s="746"/>
       <c r="M58" s="210"/>
     </row>
     <row r="59" spans="1:14" s="202" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -18670,112 +18670,112 @@
       <c r="H59" s="204"/>
       <c r="I59" s="204"/>
       <c r="J59" s="209"/>
-      <c r="K59" s="708"/>
-      <c r="L59" s="709"/>
+      <c r="K59" s="747"/>
+      <c r="L59" s="748"/>
       <c r="M59" s="210"/>
     </row>
     <row r="60" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="83"/>
-      <c r="B60" s="658" t="s">
+      <c r="B60" s="767" t="s">
         <v>400</v>
       </c>
-      <c r="C60" s="659"/>
-      <c r="D60" s="660"/>
+      <c r="C60" s="768"/>
+      <c r="D60" s="769"/>
       <c r="E60" s="84"/>
-      <c r="F60" s="649"/>
-      <c r="G60" s="650"/>
-      <c r="H60" s="650"/>
-      <c r="I60" s="651"/>
+      <c r="F60" s="758"/>
+      <c r="G60" s="759"/>
+      <c r="H60" s="759"/>
+      <c r="I60" s="760"/>
       <c r="J60" s="209"/>
-      <c r="K60" s="708"/>
-      <c r="L60" s="709"/>
+      <c r="K60" s="747"/>
+      <c r="L60" s="748"/>
       <c r="M60" s="85"/>
     </row>
     <row r="61" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="83"/>
-      <c r="B61" s="712" t="s">
+      <c r="B61" s="751" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="713"/>
+      <c r="C61" s="752"/>
       <c r="D61" s="145"/>
       <c r="E61" s="84"/>
-      <c r="F61" s="652"/>
-      <c r="G61" s="653"/>
-      <c r="H61" s="653"/>
-      <c r="I61" s="654"/>
+      <c r="F61" s="761"/>
+      <c r="G61" s="762"/>
+      <c r="H61" s="762"/>
+      <c r="I61" s="763"/>
       <c r="J61" s="209"/>
-      <c r="K61" s="708"/>
-      <c r="L61" s="709"/>
+      <c r="K61" s="747"/>
+      <c r="L61" s="748"/>
       <c r="M61" s="85"/>
     </row>
     <row r="62" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="83"/>
-      <c r="B62" s="701" t="s">
+      <c r="B62" s="739" t="s">
         <v>390</v>
       </c>
-      <c r="C62" s="702"/>
-      <c r="D62" s="661"/>
+      <c r="C62" s="740"/>
+      <c r="D62" s="743"/>
       <c r="E62" s="84"/>
-      <c r="F62" s="655"/>
-      <c r="G62" s="656"/>
-      <c r="H62" s="656"/>
-      <c r="I62" s="657"/>
+      <c r="F62" s="764"/>
+      <c r="G62" s="765"/>
+      <c r="H62" s="765"/>
+      <c r="I62" s="766"/>
       <c r="J62" s="209"/>
-      <c r="K62" s="708"/>
-      <c r="L62" s="709"/>
+      <c r="K62" s="747"/>
+      <c r="L62" s="748"/>
       <c r="M62" s="85"/>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="83"/>
-      <c r="B63" s="714"/>
-      <c r="C63" s="715"/>
-      <c r="D63" s="662"/>
+      <c r="B63" s="753"/>
+      <c r="C63" s="754"/>
+      <c r="D63" s="770"/>
       <c r="E63" s="84"/>
-      <c r="F63" s="663" t="s">
+      <c r="F63" s="771" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="664"/>
-      <c r="H63" s="664"/>
-      <c r="I63" s="665"/>
+      <c r="G63" s="772"/>
+      <c r="H63" s="772"/>
+      <c r="I63" s="773"/>
       <c r="J63" s="209"/>
-      <c r="K63" s="708"/>
-      <c r="L63" s="709"/>
+      <c r="K63" s="747"/>
+      <c r="L63" s="748"/>
       <c r="M63" s="85"/>
     </row>
     <row r="64" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="83"/>
-      <c r="B64" s="701" t="s">
+      <c r="B64" s="739" t="s">
         <v>389</v>
       </c>
-      <c r="C64" s="702"/>
-      <c r="D64" s="661"/>
+      <c r="C64" s="740"/>
+      <c r="D64" s="743"/>
       <c r="E64" s="84"/>
       <c r="F64" s="86"/>
       <c r="G64" s="212"/>
       <c r="H64" s="293"/>
       <c r="I64" s="213"/>
       <c r="J64" s="87"/>
-      <c r="K64" s="710"/>
-      <c r="L64" s="711"/>
+      <c r="K64" s="749"/>
+      <c r="L64" s="750"/>
       <c r="M64" s="85"/>
     </row>
     <row r="65" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="83"/>
-      <c r="B65" s="703"/>
-      <c r="C65" s="704"/>
-      <c r="D65" s="705"/>
+      <c r="B65" s="741"/>
+      <c r="C65" s="742"/>
+      <c r="D65" s="744"/>
       <c r="E65" s="84"/>
-      <c r="F65" s="698" t="s">
+      <c r="F65" s="736" t="s">
         <v>95</v>
       </c>
-      <c r="G65" s="699"/>
-      <c r="H65" s="699"/>
-      <c r="I65" s="700"/>
+      <c r="G65" s="737"/>
+      <c r="H65" s="737"/>
+      <c r="I65" s="738"/>
       <c r="J65" s="87"/>
-      <c r="K65" s="696" t="s">
+      <c r="K65" s="734" t="s">
         <v>97</v>
       </c>
-      <c r="L65" s="697"/>
+      <c r="L65" s="735"/>
       <c r="M65" s="85"/>
     </row>
     <row r="66" spans="1:13" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -18794,32 +18794,32 @@
       <c r="M66" s="93"/>
     </row>
     <row r="67" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="693" t="s">
+      <c r="A67" s="731" t="s">
         <v>341</v>
       </c>
-      <c r="B67" s="694"/>
-      <c r="C67" s="694"/>
-      <c r="D67" s="694"/>
-      <c r="E67" s="694"/>
-      <c r="F67" s="694"/>
-      <c r="G67" s="694"/>
-      <c r="H67" s="694"/>
-      <c r="I67" s="694"/>
-      <c r="J67" s="694"/>
-      <c r="K67" s="694"/>
-      <c r="L67" s="694"/>
-      <c r="M67" s="695"/>
+      <c r="B67" s="732"/>
+      <c r="C67" s="732"/>
+      <c r="D67" s="732"/>
+      <c r="E67" s="732"/>
+      <c r="F67" s="732"/>
+      <c r="G67" s="732"/>
+      <c r="H67" s="732"/>
+      <c r="I67" s="732"/>
+      <c r="J67" s="732"/>
+      <c r="K67" s="732"/>
+      <c r="L67" s="732"/>
+      <c r="M67" s="733"/>
     </row>
     <row r="68" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="83"/>
       <c r="B68" s="87"/>
       <c r="C68" s="94"/>
       <c r="D68" s="94"/>
-      <c r="E68" s="690"/>
-      <c r="F68" s="691"/>
-      <c r="G68" s="691"/>
-      <c r="H68" s="691"/>
-      <c r="I68" s="692"/>
+      <c r="E68" s="728"/>
+      <c r="F68" s="729"/>
+      <c r="G68" s="729"/>
+      <c r="H68" s="729"/>
+      <c r="I68" s="730"/>
       <c r="J68" s="146"/>
       <c r="K68" s="146"/>
       <c r="L68" s="95"/>
@@ -18830,13 +18830,13 @@
       <c r="B69" s="87"/>
       <c r="C69" s="294"/>
       <c r="D69" s="294"/>
-      <c r="E69" s="687" t="s">
+      <c r="E69" s="725" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="688"/>
-      <c r="G69" s="688"/>
-      <c r="H69" s="688"/>
-      <c r="I69" s="689"/>
+      <c r="F69" s="726"/>
+      <c r="G69" s="726"/>
+      <c r="H69" s="726"/>
+      <c r="I69" s="727"/>
       <c r="J69" s="148"/>
       <c r="K69" s="147"/>
       <c r="L69" s="96"/>
@@ -18858,21 +18858,21 @@
       <c r="M70" s="99"/>
     </row>
     <row r="71" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="686" t="s">
+      <c r="A71" s="724" t="s">
         <v>381</v>
       </c>
-      <c r="B71" s="686"/>
-      <c r="C71" s="686"/>
-      <c r="D71" s="686"/>
-      <c r="E71" s="686"/>
-      <c r="F71" s="686"/>
-      <c r="G71" s="686"/>
-      <c r="H71" s="686"/>
-      <c r="I71" s="686"/>
-      <c r="J71" s="686"/>
-      <c r="K71" s="686"/>
-      <c r="L71" s="686"/>
-      <c r="M71" s="686"/>
+      <c r="B71" s="724"/>
+      <c r="C71" s="724"/>
+      <c r="D71" s="724"/>
+      <c r="E71" s="724"/>
+      <c r="F71" s="724"/>
+      <c r="G71" s="724"/>
+      <c r="H71" s="724"/>
+      <c r="I71" s="724"/>
+      <c r="J71" s="724"/>
+      <c r="K71" s="724"/>
+      <c r="L71" s="724"/>
+      <c r="M71" s="724"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -18885,11 +18885,70 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="85">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F16"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="F60:I62"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="C18:F22"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="C23:F26"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="A67:M67"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="K58:L64"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="C31:F32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C34:F36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="J50:M55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A48:F49"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="C55:H57"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
@@ -18906,70 +18965,11 @@
     <mergeCell ref="I29:L29"/>
     <mergeCell ref="I26:L26"/>
     <mergeCell ref="C27:F30"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="J50:M55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A48:F49"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="C55:H57"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="C31:F32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C34:F36"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="A67:M67"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="K58:L64"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="F60:I62"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="C18:F22"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="C23:F26"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F16"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/backend/templates/pds_template.xlsx
+++ b/backend/templates/pds_template.xlsx
@@ -5206,51 +5206,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18820" name="AutoShape 116">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084490000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11677650" y="2638425"/>
-          <a:ext cx="2314575" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
@@ -10117,8 +10072,8 @@
   </sheetPr>
   <dimension ref="A1:S264"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:F34"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15583,8 +15538,8 @@
     <hyperlink ref="Q61" r:id="rId205" display="http://www.state.gov/p/eur/ci/ez/"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.15" right="0.12" top="0.36" bottom="0.12" header="0.24" footer="0.12"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId206"/>
+  <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="5" scale="86" orientation="portrait" r:id="rId206"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId207"/>
   <legacyDrawing r:id="rId208"/>
@@ -15868,7 +15823,7 @@
   </sheetPr>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="110" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A40" zoomScale="130" zoomScaleNormal="110" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="A48" sqref="A1:M48"/>
     </sheetView>
   </sheetViews>
@@ -16803,8 +16758,8 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.15" right="0" top="0.17" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="5" scale="92" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -16816,7 +16771,7 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -17650,8 +17605,8 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.17" right="0" top="0.37" bottom="0" header="0.3" footer="0"/>
-  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.15748031496062992" right="0" top="0.35433070866141736" bottom="0" header="0.31496062992125984" footer="0"/>
+  <pageSetup paperSize="5" scale="81" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -18974,7 +18929,7 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.12" right="0" top="0.34" bottom="0" header="0.17" footer="0"/>
-  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="5" scale="97" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
